--- a/Raw+Heat+Exchanger+Data.xlsx
+++ b/Raw+Heat+Exchanger+Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\CBE-410\Heat Exchanger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A83E30F-1261-4695-B0F0-79FC2A6BEDCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319F2096-A3D4-488C-819B-7987A0398DD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{7A9ADAC6-A817-46EB-99C4-6A09C8E670C4}"/>
   </bookViews>
@@ -598,13 +598,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4994,7 +4994,7 @@
     <col min="44" max="48" width="9.41796875" customWidth="1"/>
     <col min="49" max="49" width="11.20703125" bestFit="1" customWidth="1"/>
     <col min="50" max="53" width="9.41796875" customWidth="1"/>
-    <col min="54" max="54" width="9.41796875" style="25" customWidth="1"/>
+    <col min="54" max="54" width="9.41796875" style="24" customWidth="1"/>
     <col min="55" max="55" width="9.05078125" style="15" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="9.41796875" style="15" customWidth="1"/>
     <col min="57" max="60" width="9.41796875" customWidth="1"/>
@@ -5159,7 +5159,7 @@
       <c r="BA1" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="BB1" s="24" t="s">
+      <c r="BB1" s="23" t="s">
         <v>135</v>
       </c>
       <c r="BC1" s="18" t="s">
@@ -5216,7 +5216,7 @@
       <c r="AX2" s="10">
         <v>12</v>
       </c>
-      <c r="BB2" s="24"/>
+      <c r="BB2" s="23"/>
       <c r="BC2" s="18"/>
       <c r="BD2" s="18"/>
     </row>
@@ -5360,7 +5360,7 @@
       <c r="AY3" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="BB3" s="24"/>
+      <c r="BB3" s="23"/>
       <c r="BC3" s="18"/>
       <c r="BD3" s="18"/>
       <c r="BJ3" s="10" t="s">
@@ -5582,7 +5582,7 @@
         <f>1/(AY4*Parameters!$B$26)</f>
         <v>3.3603581873898204E-2</v>
       </c>
-      <c r="BB4" s="25">
+      <c r="BB4" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
@@ -5802,7 +5802,7 @@
         <f>1/(AY5*Parameters!$B$26)</f>
         <v>3.3587432082555546E-2</v>
       </c>
-      <c r="BB5" s="25">
+      <c r="BB5" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
@@ -6034,7 +6034,7 @@
         <f>1/(AY6*Parameters!$B$26)</f>
         <v>3.3571381236643258E-2</v>
       </c>
-      <c r="BB6" s="25">
+      <c r="BB6" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
@@ -6266,7 +6266,7 @@
         <f>1/(AY7*Parameters!$B$26)</f>
         <v>3.3550889325563528E-2</v>
       </c>
-      <c r="BB7" s="25">
+      <c r="BB7" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
@@ -6498,7 +6498,7 @@
         <f>1/(AY8*Parameters!$B$26)</f>
         <v>3.356225362982674E-2</v>
       </c>
-      <c r="BB8" s="25">
+      <c r="BB8" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
@@ -6517,11 +6517,11 @@
       <c r="BK8" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="BL8" s="23" t="s">
+      <c r="BL8" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="BM8" s="23"/>
-      <c r="BN8" s="23"/>
+      <c r="BM8" s="25"/>
+      <c r="BN8" s="25"/>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
@@ -6726,7 +6726,7 @@
         <f>1/(AY9*Parameters!$B$26)</f>
         <v>3.3555429026299224E-2</v>
       </c>
-      <c r="BB9" s="25">
+      <c r="BB9" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
@@ -6958,7 +6958,7 @@
         <f>1/(AY10*Parameters!$B$26)</f>
         <v>3.3548622483002999E-2</v>
       </c>
-      <c r="BB10" s="25">
+      <c r="BB10" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
@@ -7178,7 +7178,7 @@
         <f>1/(AY11*Parameters!$B$26)</f>
         <v>3.4629237942363361E-2</v>
       </c>
-      <c r="BB11" s="25">
+      <c r="BB11" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
@@ -7405,7 +7405,7 @@
         <f>1/(AY12*Parameters!$B$26)</f>
         <v>3.5854955791192397E-2</v>
       </c>
-      <c r="BB12" s="25">
+      <c r="BB12" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
@@ -7421,12 +7421,12 @@
       <c r="BF12" s="15"/>
       <c r="BG12" s="15"/>
       <c r="BH12" s="15"/>
-      <c r="BK12" s="23" t="s">
+      <c r="BK12" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="BL12" s="23"/>
-      <c r="BM12" s="23"/>
-      <c r="BN12" s="23"/>
+      <c r="BL12" s="25"/>
+      <c r="BM12" s="25"/>
+      <c r="BN12" s="25"/>
       <c r="BO12">
         <v>39.799999999999997</v>
       </c>
@@ -7641,7 +7641,7 @@
         <f>1/(AY13*Parameters!$B$26)</f>
         <v>3.2596172612714011E-2</v>
       </c>
-      <c r="BB13" s="25">
+      <c r="BB13" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
@@ -7868,7 +7868,7 @@
         <f>1/(AY14*Parameters!$B$26)</f>
         <v>3.1343333510568144E-2</v>
       </c>
-      <c r="BB14" s="25">
+      <c r="BB14" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
@@ -8095,7 +8095,7 @@
         <f>1/(AY15*Parameters!$B$26)</f>
         <v>3.9508557093715202E-2</v>
       </c>
-      <c r="BB15" s="25">
+      <c r="BB15" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
@@ -8321,7 +8321,7 @@
         <f>1/(AY16*Parameters!$B$26)</f>
         <v>3.9474336753434584E-2</v>
       </c>
-      <c r="BB16" s="25">
+      <c r="BB16" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
@@ -8541,7 +8541,7 @@
         <f>1/(AY17*Parameters!$B$26)</f>
         <v>3.9455802273811624E-2</v>
       </c>
-      <c r="BB17" s="25">
+      <c r="BB17" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
@@ -8761,7 +8761,7 @@
         <f>1/(AY18*Parameters!$B$26)</f>
         <v>3.9425116361339607E-2</v>
       </c>
-      <c r="BB18" s="25">
+      <c r="BB18" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
@@ -8981,7 +8981,7 @@
         <f>1/(AY19*Parameters!$B$26)</f>
         <v>3.943429529736367E-2</v>
       </c>
-      <c r="BB19" s="25">
+      <c r="BB19" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
@@ -8997,14 +8997,14 @@
       <c r="BF19" s="15"/>
       <c r="BG19" s="15"/>
       <c r="BH19" s="15"/>
-      <c r="BK19" s="23" t="s">
+      <c r="BK19" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="BL19" s="23"/>
-      <c r="BO19" s="23" t="s">
+      <c r="BL19" s="25"/>
+      <c r="BO19" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="BP19" s="23"/>
+      <c r="BP19" s="25"/>
     </row>
     <row r="20" spans="1:68" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
@@ -9209,7 +9209,7 @@
         <f>1/(AY20*Parameters!$B$26)</f>
         <v>3.942817345423337E-2</v>
       </c>
-      <c r="BB20" s="25">
+      <c r="BB20" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
@@ -9441,7 +9441,7 @@
         <f>1/(AY21*Parameters!$B$26)</f>
         <v>3.942817345423337E-2</v>
       </c>
-      <c r="BB21" s="25">
+      <c r="BB21" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
@@ -9673,7 +9673,7 @@
         <f>1/(AY22*Parameters!$B$26)</f>
         <v>4.0366651258135121E-2</v>
       </c>
-      <c r="BB22" s="25">
+      <c r="BB22" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
@@ -9893,7 +9893,7 @@
         <f>1/(AY23*Parameters!$B$26)</f>
         <v>4.1392156631683004E-2</v>
       </c>
-      <c r="BB23" s="25">
+      <c r="BB23" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
@@ -10113,7 +10113,7 @@
         <f>1/(AY24*Parameters!$B$26)</f>
         <v>3.8153569135069745E-2</v>
       </c>
-      <c r="BB24" s="25">
+      <c r="BB24" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
@@ -10333,7 +10333,7 @@
         <f>1/(AY25*Parameters!$B$26)</f>
         <v>3.7397949108228683E-2</v>
       </c>
-      <c r="BB25" s="25">
+      <c r="BB25" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
@@ -10385,7 +10385,7 @@
       <c r="AJ27" s="13"/>
       <c r="AO27" s="15"/>
       <c r="AQ27" s="15"/>
-      <c r="BB27" s="25"/>
+      <c r="BB27" s="24"/>
       <c r="BC27" s="15"/>
       <c r="BD27" s="15"/>
     </row>
@@ -10403,10 +10403,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B1DCBE-6AF6-4E62-8125-69572A4CD5F9}">
-  <dimension ref="A1:CA27"/>
+  <dimension ref="A1:BW27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK7" sqref="AK7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="BN7" sqref="BN7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10436,15 +10436,15 @@
     <col min="53" max="57" width="9.41796875" customWidth="1"/>
     <col min="58" max="58" width="11.20703125" bestFit="1" customWidth="1"/>
     <col min="59" max="62" width="9.41796875" customWidth="1"/>
-    <col min="63" max="63" width="9.41796875" style="25" customWidth="1"/>
+    <col min="63" max="63" width="9.41796875" style="24" customWidth="1"/>
     <col min="64" max="64" width="9.05078125" style="15" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="9.41796875" style="15" customWidth="1"/>
-    <col min="66" max="69" width="9.41796875" customWidth="1"/>
-    <col min="72" max="72" width="11.9453125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="9.26171875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.41796875" customWidth="1"/>
+    <col min="68" max="68" width="11.9453125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="9.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:75" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
@@ -10628,7 +10628,7 @@
       <c r="BJ1" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="BK1" s="24" t="s">
+      <c r="BK1" s="23" t="s">
         <v>135</v>
       </c>
       <c r="BL1" s="18" t="s">
@@ -10638,7 +10638,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:79" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:75" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="21" t="s">
         <v>40</v>
       </c>
@@ -10685,11 +10685,11 @@
       <c r="BG2" s="10">
         <v>12</v>
       </c>
-      <c r="BK2" s="24"/>
+      <c r="BK2" s="23"/>
       <c r="BL2" s="18"/>
       <c r="BM2" s="18"/>
     </row>
-    <row r="3" spans="1:79" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:75" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="22" t="s">
         <v>41</v>
       </c>
@@ -10852,26 +10852,26 @@
       <c r="BH3" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="BK3" s="24"/>
+      <c r="BK3" s="23"/>
       <c r="BL3" s="18"/>
       <c r="BM3" s="18"/>
+      <c r="BO3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR3" s="10" t="s">
+        <v>68</v>
+      </c>
       <c r="BS3" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="BT3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="BU3" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BV3" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="BW3" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -10911,11 +10911,11 @@
         <v>30.45</v>
       </c>
       <c r="M4">
-        <f>$BU$6*K4^2+$BV$6*K4+$BW$6</f>
+        <f t="shared" ref="M4:M25" si="0">$BQ$6*K4^2+$BR$6*K4+$BS$6</f>
         <v>991.49983552000003</v>
       </c>
       <c r="N4">
-        <f>$BU$6*L4^2+$BV$6*L4+$BW$6</f>
+        <f t="shared" ref="N4:N25" si="1">$BQ$6*L4^2+$BR$6*L4+$BS$6</f>
         <v>994.70308007000006</v>
       </c>
       <c r="O4">
@@ -10935,11 +10935,11 @@
         <v>1.6578384667833336E-3</v>
       </c>
       <c r="S4">
-        <f>O4*$BV$15*(C4-E4)</f>
+        <f t="shared" ref="S4:S25" si="2">O4*$BR$15*(C4-E4)</f>
         <v>225.81607053935087</v>
       </c>
       <c r="T4">
-        <f>P4*$BV$15*(F4-H4)</f>
+        <f t="shared" ref="T4:T14" si="3">P4*$BR$15*(F4-H4)</f>
         <v>281.83353405624649</v>
       </c>
       <c r="U4">
@@ -10947,15 +10947,15 @@
         <v>56.017463516895617</v>
       </c>
       <c r="V4">
-        <f>SQRT((O4*$BV$15)^2*Y4^2+((C4-E4)*($BV$15))^2*Q4^2)</f>
+        <f t="shared" ref="V4:V25" si="4">SQRT((O4*$BR$15)^2*Y4^2+((C4-E4)*($BR$15))^2*Q4^2)</f>
         <v>20.909962173476465</v>
       </c>
       <c r="W4">
-        <f>(C4-F4)</f>
+        <f t="shared" ref="W4:W14" si="5">(C4-F4)</f>
         <v>9.6000000000000014</v>
       </c>
       <c r="X4">
-        <f>(E4-H4)</f>
+        <f t="shared" ref="X4:X14" si="6">(E4-H4)</f>
         <v>9.1000000000000014</v>
       </c>
       <c r="Y4">
@@ -10979,11 +10979,11 @@
         <v>0.10003973842764992</v>
       </c>
       <c r="AD4">
-        <f>S4/Z4</f>
+        <f t="shared" ref="AD4:AD25" si="7">S4/Z4</f>
         <v>24.157209307898039</v>
       </c>
       <c r="AE4">
-        <f>T4/Z4</f>
+        <f t="shared" ref="AE4:AE25" si="8">T4/Z4</f>
         <v>30.149810223515228</v>
       </c>
       <c r="AF4">
@@ -11027,35 +11027,35 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AP4" s="1">
-        <f>$BU$7*K4^2+$BV$7*K4+$BW$7</f>
+        <f t="shared" ref="AP4:AP25" si="9">$BQ$7*K4^2+$BR$7*K4+$BS$7</f>
         <v>6.3979146799999988E-4</v>
       </c>
       <c r="AQ4" s="1">
-        <f>$BU$7*L4^2+$BV$7*L4+$BW$7</f>
+        <f t="shared" ref="AQ4:AQ25" si="10">$BQ$7*L4^2+$BR$7*L4+$BS$7</f>
         <v>7.7021765674999999E-4</v>
       </c>
       <c r="AR4" s="13">
-        <f>M4*AL4*AN4/AP4</f>
+        <f t="shared" ref="AR4:AR25" si="11">M4*AL4*AN4/AP4</f>
         <v>2877.5383713115948</v>
       </c>
       <c r="AS4" s="13">
-        <f>N4*AM4*AO4/AQ4</f>
+        <f t="shared" ref="AS4:AS25" si="12">N4*AM4*AO4/AQ4</f>
         <v>1370.2785674886129</v>
       </c>
       <c r="AT4" s="1">
-        <f>$BU$9*K4^2+$BV$9*K4+$BW$9</f>
+        <f t="shared" ref="AT4:AT25" si="13">$BQ$9*K4^2+$BR$9*K4+$BS$9</f>
         <v>0.63222002715999992</v>
       </c>
       <c r="AU4" s="1">
-        <f>$BU$9*L4^2+$BV$9*L4+$BW$9</f>
+        <f t="shared" ref="AU4:AU25" si="14">$BQ$9*L4^2+$BR$9*L4+$BS$9</f>
         <v>0.6200126694975</v>
       </c>
       <c r="AV4" s="15">
-        <f>AP4*$BV$15/AT4</f>
+        <f>AP4*$BR$15/AT4</f>
         <v>4.1157062234244703</v>
       </c>
       <c r="AW4" s="15">
-        <f>AQ4*$BV$15/AU4</f>
+        <f>AQ4*$BR$15/AU4</f>
         <v>5.0522761293588063</v>
       </c>
       <c r="AX4" s="15">
@@ -11067,11 +11067,11 @@
         <v>0.16</v>
       </c>
       <c r="AZ4" s="15">
-        <f t="shared" ref="AZ4:AZ25" si="0">0.05*AO4*AS4</f>
+        <f t="shared" ref="AZ4:AZ25" si="15">0.05*AO4*AS4</f>
         <v>0.54811142699544524</v>
       </c>
       <c r="BA4" s="15">
-        <f t="shared" ref="BA4:BA25" si="1">AZ4*AW4</f>
+        <f t="shared" ref="BA4:BA25" si="16">AZ4*AW4</f>
         <v>2.7692102788378801</v>
       </c>
       <c r="BB4" s="15">
@@ -11110,7 +11110,7 @@
         <f>1/(BH4*Parameters!$B$26)</f>
         <v>3.3603581873898204E-2</v>
       </c>
-      <c r="BK4" s="25">
+      <c r="BK4" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
@@ -11123,11 +11123,8 @@
         <v>296.22723481828041</v>
       </c>
       <c r="BN4" s="15"/>
-      <c r="BO4" s="15"/>
-      <c r="BP4" s="15"/>
-      <c r="BQ4" s="15"/>
     </row>
-    <row r="5" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -11159,91 +11156,91 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K25" si="2">AVERAGE(C5,E5)</f>
+        <f t="shared" ref="K5:K25" si="17">AVERAGE(C5,E5)</f>
         <v>43.599999999999994</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L25" si="3">AVERAGE(H5,F5)</f>
+        <f t="shared" ref="L5:L25" si="18">AVERAGE(H5,F5)</f>
         <v>30.8</v>
       </c>
       <c r="M5">
-        <f>$BU$6*K5^2+$BV$6*K5+$BW$6</f>
+        <f t="shared" si="0"/>
         <v>990.02748448</v>
       </c>
       <c r="N5">
-        <f>$BU$6*L5^2+$BV$6*L5+$BW$6</f>
+        <f t="shared" si="1"/>
         <v>994.59392032000005</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O5:P25" si="4">M5*I5/1000/60</f>
+        <f t="shared" ref="O5:P25" si="19">M5*I5/1000/60</f>
         <v>2.3100641304533334E-2</v>
       </c>
       <c r="P5">
+        <f t="shared" si="19"/>
+        <v>3.6468443745066671E-2</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ref="Q5:Q25" si="20">M5*0.1/60000</f>
+        <v>1.6500458074666668E-3</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ref="R5:R25" si="21">N5*0.1/60000</f>
+        <v>1.6576565338666668E-3</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="2"/>
+        <v>338.22110946793356</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="3"/>
+        <v>385.62461784908419</v>
+      </c>
+      <c r="U5">
+        <f t="shared" ref="U5:U25" si="22">ABS(S5-T5)</f>
+        <v>47.40350838115063</v>
+      </c>
+      <c r="V5">
         <f t="shared" si="4"/>
-        <v>3.6468443745066671E-2</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" ref="Q5:Q25" si="5">M5*0.1/60000</f>
-        <v>1.6500458074666668E-3</v>
-      </c>
-      <c r="R5">
-        <f t="shared" ref="R5:R25" si="6">N5*0.1/60000</f>
-        <v>1.6576565338666668E-3</v>
-      </c>
-      <c r="S5">
-        <f>O5*$BV$15*(C5-E5)</f>
-        <v>338.22110946793356</v>
-      </c>
-      <c r="T5">
-        <f>P5*$BV$15*(F5-H5)</f>
-        <v>385.62461784908419</v>
-      </c>
-      <c r="U5">
-        <f t="shared" ref="U5:U25" si="7">ABS(S5-T5)</f>
-        <v>47.40350838115063</v>
-      </c>
-      <c r="V5">
-        <f>SQRT((O5*$BV$15)^2*Y5^2+((C5-E5)*($BV$15))^2*Q5^2)</f>
         <v>27.571246084675227</v>
       </c>
       <c r="W5">
-        <f>(C5-F5)</f>
+        <f t="shared" si="5"/>
         <v>13.299999999999997</v>
       </c>
       <c r="X5">
-        <f>(E5-H5)</f>
+        <f t="shared" si="6"/>
         <v>12.299999999999997</v>
       </c>
       <c r="Y5">
-        <f t="shared" ref="Y5:Y25" si="8">SQRT(2)*0.1</f>
+        <f t="shared" ref="Y5:Y25" si="23">SQRT(2)*0.1</f>
         <v>0.14142135623730953</v>
       </c>
       <c r="Z5">
-        <f t="shared" ref="Z5:Z25" si="9">(W5-X5)/(LN((W5)/(X5)))</f>
+        <f t="shared" ref="Z5:Z25" si="24">(W5-X5)/(LN((W5)/(X5)))</f>
         <v>12.793486932118572</v>
       </c>
       <c r="AA5">
-        <f t="shared" ref="AA5:AA25" si="10">(W5*LN(W5/X5)-W5+X5)/(W5*LN(W5/X5)^2)</f>
+        <f t="shared" ref="AA5:AA25" si="25">(W5*LN(W5/X5)-W5+X5)/(W5*LN(W5/X5)^2)</f>
         <v>0.48722318157055106</v>
       </c>
       <c r="AB5">
-        <f t="shared" ref="AB5:AB25" si="11">(-X5*LN(W5/X5)+W5-X5)/(X5*LN(W5/X5)^2)</f>
+        <f t="shared" ref="AB5:AB25" si="26">(-X5*LN(W5/X5)+W5-X5)/(X5*LN(W5/X5)^2)</f>
         <v>0.51328606644147678</v>
       </c>
       <c r="AC5">
-        <f t="shared" ref="AC5:AC25" si="12">SQRT((AA5)^2*Y5^2+(AB5)^2*Y5^2)</f>
+        <f t="shared" ref="AC5:AC25" si="27">SQRT((AA5)^2*Y5^2+(AB5)^2*Y5^2)</f>
         <v>0.10008486545554172</v>
       </c>
       <c r="AD5">
-        <f>S5/Z5</f>
+        <f t="shared" si="7"/>
         <v>26.436976194411521</v>
       </c>
       <c r="AE5">
-        <f>T5/Z5</f>
+        <f t="shared" si="8"/>
         <v>30.142260659285768</v>
       </c>
       <c r="AF5">
-        <f t="shared" ref="AF5:AF25" si="13">SQRT((1/Z5)^2*V5^2+(-V5/(Z5)^2)^2*AC5^2)</f>
+        <f t="shared" ref="AF5:AF25" si="28">SQRT((1/Z5)^2*V5^2+(-V5/(Z5)^2)^2*AC5^2)</f>
         <v>2.1551661335831005</v>
       </c>
       <c r="AG5">
@@ -11255,7 +11252,7 @@
         <v>533.03219776552248</v>
       </c>
       <c r="AI5">
-        <f t="shared" ref="AI5:AI25" si="14">AVERAGE(AG5,AH5)</f>
+        <f t="shared" ref="AI5:AI25" si="29">AVERAGE(AG5,AH5)</f>
         <v>529.48956399172107</v>
       </c>
       <c r="AJ5">
@@ -11283,71 +11280,71 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AP5" s="1">
-        <f>$BU$7*K5^2+$BV$7*K5+$BW$7</f>
+        <f t="shared" si="9"/>
         <v>5.9511403199999998E-4</v>
       </c>
       <c r="AQ5" s="1">
-        <f>$BU$7*L5^2+$BV$7*L5+$BW$7</f>
+        <f t="shared" si="10"/>
         <v>7.6481028799999992E-4</v>
       </c>
       <c r="AR5" s="13">
-        <f>M5*AL5*AN5/AP5</f>
+        <f t="shared" si="11"/>
         <v>3088.972074690796</v>
       </c>
       <c r="AS5" s="13">
-        <f>N5*AM5*AO5/AQ5</f>
+        <f t="shared" si="12"/>
         <v>1379.8152846681267</v>
       </c>
       <c r="AT5" s="1">
-        <f>$BU$9*K5^2+$BV$9*K5+$BW$9</f>
+        <f t="shared" si="13"/>
         <v>0.63679548783999995</v>
       </c>
       <c r="AU5" s="1">
-        <f>$BU$9*L5^2+$BV$9*L5+$BW$9</f>
+        <f t="shared" si="14"/>
         <v>0.62049395056000001</v>
       </c>
       <c r="AV5" s="15">
-        <f t="shared" ref="AV5:AW25" si="15">AP5*$BV$15/AT5</f>
+        <f t="shared" ref="AV5:AW25" si="30">AP5*$BR$15/AT5</f>
         <v>3.8007944691218154</v>
       </c>
       <c r="AW5" s="15">
+        <f t="shared" si="30"/>
+        <v>5.0129150147052473</v>
+      </c>
+      <c r="AX5" s="15">
+        <f t="shared" ref="AX5:AX25" si="31">50*AN5</f>
+        <v>0.8</v>
+      </c>
+      <c r="AY5" s="15">
+        <f t="shared" ref="AY5:AY25" si="32">10*AN5</f>
+        <v>0.16</v>
+      </c>
+      <c r="AZ5" s="15">
         <f t="shared" si="15"/>
-        <v>5.0129150147052473</v>
-      </c>
-      <c r="AX5" s="15">
-        <f t="shared" ref="AX5:AX25" si="16">50*AN5</f>
-        <v>0.8</v>
-      </c>
-      <c r="AY5" s="15">
-        <f t="shared" ref="AY5:AY25" si="17">10*AN5</f>
-        <v>0.16</v>
-      </c>
-      <c r="AZ5" s="15">
-        <f t="shared" si="0"/>
         <v>0.55192611386725066</v>
       </c>
       <c r="BA5" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>2.7667587032130587</v>
       </c>
       <c r="BB5" s="15">
-        <f t="shared" ref="BB5:BB25" si="18">(0.79*LN(AR5)-1.64)^(-2)</f>
+        <f t="shared" ref="BB5:BB25" si="33">(0.79*LN(AR5)-1.64)^(-2)</f>
         <v>4.5113356456734033E-2</v>
       </c>
       <c r="BC5" s="15">
-        <f t="shared" ref="BC5:BC25" si="19">((BB5/8)*(AR5-1000)*AV5)/(1+12.7*(BB5/8)^(1/2)*(AV5^(2/3)-1))</f>
+        <f t="shared" ref="BC5:BC25" si="34">((BB5/8)*(AR5-1000)*AV5)/(1+12.7*(BB5/8)^(1/2)*(AV5^(2/3)-1))</f>
         <v>18.899740325017014</v>
       </c>
       <c r="BD5" s="15">
-        <f t="shared" ref="BD5:BD25" si="20">BC5*AT5/AN5</f>
+        <f t="shared" ref="BD5:BD25" si="35">BC5*AT5/AN5</f>
         <v>752.20433501990806</v>
       </c>
       <c r="BE5" s="15">
-        <f t="shared" ref="BE5:BE25" si="21">AS5*AW5*AO5/1</f>
+        <f t="shared" ref="BE5:BE25" si="36">AS5*AW5*AO5/1</f>
         <v>55.335174064261174</v>
       </c>
       <c r="BF5" s="15">
-        <f t="shared" ref="BF5:BF14" si="22">1.953*(BE5)^(1/3)</f>
+        <f t="shared" ref="BF5:BF14" si="37">1.953*(BE5)^(1/3)</f>
         <v>7.4422228447661727</v>
       </c>
       <c r="BG5" s="15">
@@ -11355,7 +11352,7 @@
         <v>6.7881785362076217</v>
       </c>
       <c r="BH5" s="15">
-        <f t="shared" ref="BH5:BH25" si="23">BG5*AU5/AO5</f>
+        <f t="shared" ref="BH5:BH25" si="38">BG5*AU5/AO5</f>
         <v>526.50296462975825</v>
       </c>
       <c r="BI5" s="15">
@@ -11366,12 +11363,12 @@
         <f>1/(BH5*Parameters!$B$26)</f>
         <v>3.3587432082555546E-2</v>
       </c>
-      <c r="BK5" s="25">
+      <c r="BK5" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
       <c r="BL5" s="15">
-        <f t="shared" ref="BL5:BL25" si="24">(BI5+BJ5+BK5)^(-1)</f>
+        <f t="shared" ref="BL5:BL25" si="39">(BI5+BJ5+BK5)^(-1)</f>
         <v>16.317142908572983</v>
       </c>
       <c r="BM5" s="15">
@@ -11379,23 +11376,20 @@
         <v>305.52399423955961</v>
       </c>
       <c r="BN5" s="15"/>
-      <c r="BO5" s="15"/>
-      <c r="BP5" s="15"/>
-      <c r="BQ5" s="15"/>
-      <c r="BT5" t="s">
+      <c r="BP5" t="s">
         <v>72</v>
       </c>
-      <c r="BU5" t="s">
+      <c r="BQ5" t="s">
         <v>70</v>
       </c>
-      <c r="BV5" t="s">
+      <c r="BR5" t="s">
         <v>71</v>
       </c>
-      <c r="BW5" t="s">
+      <c r="BS5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -11427,91 +11421,91 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K6">
+        <f t="shared" si="17"/>
+        <v>47.099999999999994</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="18"/>
+        <v>31.15</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>988.58419507999997</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>994.48392463000005</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="19"/>
+        <v>2.3066964551866666E-2</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="19"/>
+        <v>3.6464410569766674E-2</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="20"/>
+        <v>1.6476403251333334E-3</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="21"/>
+        <v>1.6574732077166668E-3</v>
+      </c>
+      <c r="S6">
         <f t="shared" si="2"/>
-        <v>47.099999999999994</v>
-      </c>
-      <c r="L6">
+        <v>431.5413862292321</v>
+      </c>
+      <c r="T6">
         <f t="shared" si="3"/>
-        <v>31.15</v>
-      </c>
-      <c r="M6">
-        <f>$BU$6*K6^2+$BV$6*K6+$BW$6</f>
-        <v>988.58419507999997</v>
-      </c>
-      <c r="N6">
-        <f>$BU$6*L6^2+$BV$6*L6+$BW$6</f>
-        <v>994.48392463000005</v>
-      </c>
-      <c r="O6">
+        <v>489.39250069789506</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="22"/>
+        <v>57.851114468662956</v>
+      </c>
+      <c r="V6">
         <f t="shared" si="4"/>
-        <v>2.3066964551866666E-2</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="4"/>
-        <v>3.6464410569766674E-2</v>
-      </c>
-      <c r="Q6">
+        <v>33.558330819585215</v>
+      </c>
+      <c r="W6">
         <f t="shared" si="5"/>
-        <v>1.6476403251333334E-3</v>
-      </c>
-      <c r="R6">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="X6">
         <f t="shared" si="6"/>
-        <v>1.6574732077166668E-3</v>
-      </c>
-      <c r="S6">
-        <f>O6*$BV$15*(C6-E6)</f>
-        <v>431.5413862292321</v>
-      </c>
-      <c r="T6">
-        <f>P6*$BV$15*(F6-H6)</f>
-        <v>489.39250069789506</v>
-      </c>
-      <c r="U6">
+        <v>15.299999999999997</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="23"/>
+        <v>0.14142135623730953</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="24"/>
+        <v>15.941166410144639</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="25"/>
+        <v>0.48668099594426617</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="26"/>
+        <v>0.5138733253248301</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="27"/>
+        <v>0.10009237596277767</v>
+      </c>
+      <c r="AD6">
         <f t="shared" si="7"/>
-        <v>57.851114468662956</v>
-      </c>
-      <c r="V6">
-        <f>SQRT((O6*$BV$15)^2*Y6^2+((C6-E6)*($BV$15))^2*Q6^2)</f>
-        <v>33.558330819585215</v>
-      </c>
-      <c r="W6">
-        <f>(C6-F6)</f>
-        <v>16.600000000000001</v>
-      </c>
-      <c r="X6">
-        <f>(E6-H6)</f>
-        <v>15.299999999999997</v>
-      </c>
-      <c r="Y6">
+        <v>27.070878951154278</v>
+      </c>
+      <c r="AE6">
         <f t="shared" si="8"/>
-        <v>0.14142135623730953</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" si="9"/>
-        <v>15.941166410144639</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" si="10"/>
-        <v>0.48668099594426617</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" si="11"/>
-        <v>0.5138733253248301</v>
-      </c>
-      <c r="AC6">
-        <f t="shared" si="12"/>
-        <v>0.10009237596277767</v>
-      </c>
-      <c r="AD6">
-        <f>S6/Z6</f>
-        <v>27.070878951154278</v>
-      </c>
-      <c r="AE6">
-        <f>T6/Z6</f>
         <v>30.699917942419539</v>
       </c>
       <c r="AF6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>2.1051779683594831</v>
       </c>
       <c r="AG6">
@@ -11523,7 +11517,7 @@
         <v>542.8937436724043</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>540.72588426861125</v>
       </c>
       <c r="AJ6">
@@ -11551,71 +11545,71 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AP6" s="1">
-        <f>$BU$7*K6^2+$BV$7*K6+$BW$7</f>
+        <f t="shared" si="9"/>
         <v>5.5822294699999994E-4</v>
       </c>
       <c r="AQ6" s="1">
-        <f>$BU$7*L6^2+$BV$7*L6+$BW$7</f>
+        <f t="shared" si="10"/>
         <v>7.5944376074999994E-4</v>
       </c>
       <c r="AR6" s="13">
-        <f>M6*AL6*AN6/AP6</f>
+        <f t="shared" si="11"/>
         <v>3288.3111042684413</v>
       </c>
       <c r="AS6" s="13">
-        <f>N6*AM6*AO6/AQ6</f>
+        <f t="shared" si="12"/>
         <v>1389.411923221136</v>
       </c>
       <c r="AT6" s="1">
-        <f>$BU$9*K6^2+$BV$9*K6+$BW$9</f>
+        <f t="shared" si="13"/>
         <v>0.64081245638999995</v>
       </c>
       <c r="AU6" s="1">
-        <f>$BU$9*L6^2+$BV$9*L6+$BW$9</f>
+        <f t="shared" si="14"/>
         <v>0.62097333997749993</v>
       </c>
       <c r="AV6" s="15">
+        <f t="shared" si="30"/>
+        <v>3.5428348853245364</v>
+      </c>
+      <c r="AW6" s="15">
+        <f t="shared" si="30"/>
+        <v>4.9738975510320023</v>
+      </c>
+      <c r="AX6" s="15">
+        <f t="shared" si="31"/>
+        <v>0.8</v>
+      </c>
+      <c r="AY6" s="15">
+        <f t="shared" si="32"/>
+        <v>0.16</v>
+      </c>
+      <c r="AZ6" s="15">
         <f t="shared" si="15"/>
-        <v>3.5428348853245364</v>
-      </c>
-      <c r="AW6" s="15">
-        <f t="shared" si="15"/>
-        <v>4.9738975510320023</v>
-      </c>
-      <c r="AX6" s="15">
+        <v>0.55576476928845442</v>
+      </c>
+      <c r="BA6" s="15">
         <f t="shared" si="16"/>
-        <v>0.8</v>
-      </c>
-      <c r="AY6" s="15">
-        <f t="shared" si="17"/>
-        <v>0.16</v>
-      </c>
-      <c r="AZ6" s="15">
-        <f t="shared" si="0"/>
-        <v>0.55576476928845442</v>
-      </c>
-      <c r="BA6" s="15">
-        <f t="shared" si="1"/>
         <v>2.764317024913709</v>
       </c>
       <c r="BB6" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>4.4181285970698668E-2</v>
       </c>
       <c r="BC6" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>19.902792655740217</v>
       </c>
       <c r="BD6" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>797.12234067160864</v>
       </c>
       <c r="BE6" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>55.286340498274186</v>
       </c>
       <c r="BF6" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>7.4400329342276539</v>
       </c>
       <c r="BG6" s="15">
@@ -11623,7 +11617,7 @@
         <v>6.7861810814116739</v>
       </c>
       <c r="BH6" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>526.75469147704121</v>
       </c>
       <c r="BI6" s="15">
@@ -11634,12 +11628,12 @@
         <f>1/(BH6*Parameters!$B$26)</f>
         <v>3.3571381236643258E-2</v>
       </c>
-      <c r="BK6" s="25">
+      <c r="BK6" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
       <c r="BL6" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>16.728329312711395</v>
       </c>
       <c r="BM6" s="15">
@@ -11647,23 +11641,20 @@
         <v>313.22309409259611</v>
       </c>
       <c r="BN6" s="15"/>
-      <c r="BO6" s="15"/>
-      <c r="BP6" s="15"/>
-      <c r="BQ6" s="15"/>
-      <c r="BT6" s="11" t="s">
+      <c r="BP6" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="BU6">
+      <c r="BQ6">
         <v>-3.4120000000000001E-3</v>
       </c>
-      <c r="BV6">
+      <c r="BR6">
         <v>-0.10290000000000001</v>
       </c>
-      <c r="BW6">
+      <c r="BS6">
         <v>1001</v>
       </c>
     </row>
-    <row r="7" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -11695,91 +11686,91 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K7">
+        <f t="shared" si="17"/>
+        <v>51.150000000000006</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="18"/>
+        <v>31.6</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>986.80977263</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>994.34127328</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="19"/>
+        <v>2.3025561361366666E-2</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="19"/>
+        <v>3.6459180020266671E-2</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="20"/>
+        <v>1.6446829543833334E-3</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="21"/>
+        <v>1.6572354554666667E-3</v>
+      </c>
+      <c r="S7">
         <f t="shared" si="2"/>
-        <v>51.150000000000006</v>
-      </c>
-      <c r="L7">
+        <v>552.50525253440151</v>
+      </c>
+      <c r="T7">
         <f t="shared" si="3"/>
-        <v>31.6</v>
-      </c>
-      <c r="M7">
-        <f>$BU$6*K7^2+$BV$6*K7+$BW$6</f>
-        <v>986.80977263</v>
-      </c>
-      <c r="N7">
-        <f>$BU$6*L7^2+$BV$6*L7+$BW$6</f>
-        <v>994.34127328</v>
-      </c>
-      <c r="O7">
+        <v>622.7738375981836</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="22"/>
+        <v>70.268585063782098</v>
+      </c>
+      <c r="V7">
         <f t="shared" si="4"/>
-        <v>2.3025561361366666E-2</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="4"/>
-        <v>3.6459180020266671E-2</v>
-      </c>
-      <c r="Q7">
+        <v>41.627479181075778</v>
+      </c>
+      <c r="W7">
         <f t="shared" si="5"/>
-        <v>1.6446829543833334E-3</v>
-      </c>
-      <c r="R7">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="X7">
         <f t="shared" si="6"/>
-        <v>1.6572354554666667E-3</v>
-      </c>
-      <c r="S7">
-        <f>O7*$BV$15*(C7-E7)</f>
-        <v>552.50525253440151</v>
-      </c>
-      <c r="T7">
-        <f>P7*$BV$15*(F7-H7)</f>
-        <v>622.7738375981836</v>
-      </c>
-      <c r="U7">
+        <v>18.700000000000003</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="23"/>
+        <v>0.14142135623730953</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="24"/>
+        <v>19.537674943388282</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="25"/>
+        <v>0.48580815027736446</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="26"/>
+        <v>0.51482292394279283</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="27"/>
+        <v>0.1001051648910206</v>
+      </c>
+      <c r="AD7">
         <f t="shared" si="7"/>
-        <v>70.268585063782098</v>
-      </c>
-      <c r="V7">
-        <f>SQRT((O7*$BV$15)^2*Y7^2+((C7-E7)*($BV$15))^2*Q7^2)</f>
-        <v>41.627479181075778</v>
-      </c>
-      <c r="W7">
-        <f>(C7-F7)</f>
-        <v>20.399999999999999</v>
-      </c>
-      <c r="X7">
-        <f>(E7-H7)</f>
-        <v>18.700000000000003</v>
-      </c>
-      <c r="Y7">
+        <v>28.278966362953749</v>
+      </c>
+      <c r="AE7">
         <f t="shared" si="8"/>
-        <v>0.14142135623730953</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="9"/>
-        <v>19.537674943388282</v>
-      </c>
-      <c r="AA7">
-        <f t="shared" si="10"/>
-        <v>0.48580815027736446</v>
-      </c>
-      <c r="AB7">
-        <f t="shared" si="11"/>
-        <v>0.51482292394279283</v>
-      </c>
-      <c r="AC7">
-        <f t="shared" si="12"/>
-        <v>0.1001051648910206</v>
-      </c>
-      <c r="AD7">
-        <f>S7/Z7</f>
-        <v>28.278966362953749</v>
-      </c>
-      <c r="AE7">
-        <f>T7/Z7</f>
         <v>31.875534801490577</v>
       </c>
       <c r="AF7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>2.1306540162255754</v>
       </c>
       <c r="AG7">
@@ -11791,7 +11782,7 @@
         <v>563.68321415055141</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>563.13768721237102</v>
       </c>
       <c r="AJ7">
@@ -11819,71 +11810,71 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AP7" s="1">
-        <f>$BU$7*K7^2+$BV$7*K7+$BW$7</f>
+        <f t="shared" si="9"/>
         <v>5.2063196074999987E-4</v>
       </c>
       <c r="AQ7" s="1">
-        <f>$BU$7*L7^2+$BV$7*L7+$BW$7</f>
+        <f t="shared" si="10"/>
         <v>7.526039519999999E-4</v>
       </c>
       <c r="AR7" s="13">
-        <f>M7*AL7*AN7/AP7</f>
+        <f t="shared" si="11"/>
         <v>3519.4073591334518</v>
       </c>
       <c r="AS7" s="13">
-        <f>N7*AM7*AO7/AQ7</f>
+        <f t="shared" si="12"/>
         <v>1401.8380525573891</v>
       </c>
       <c r="AT7" s="1">
-        <f>$BU$9*K7^2+$BV$9*K7+$BW$9</f>
+        <f t="shared" si="13"/>
         <v>0.64522457397749999</v>
       </c>
       <c r="AU7" s="1">
-        <f>$BU$9*L7^2+$BV$9*L7+$BW$9</f>
+        <f t="shared" si="14"/>
         <v>0.62158691824000001</v>
       </c>
       <c r="AV7" s="15">
+        <f t="shared" si="30"/>
+        <v>3.2816638884620146</v>
+      </c>
+      <c r="AW7" s="15">
+        <f t="shared" si="30"/>
+        <v>4.9242353449951199</v>
+      </c>
+      <c r="AX7" s="15">
+        <f t="shared" si="31"/>
+        <v>0.8</v>
+      </c>
+      <c r="AY7" s="15">
+        <f t="shared" si="32"/>
+        <v>0.16</v>
+      </c>
+      <c r="AZ7" s="15">
         <f t="shared" si="15"/>
-        <v>3.2816638884620146</v>
-      </c>
-      <c r="AW7" s="15">
-        <f t="shared" si="15"/>
-        <v>4.9242353449951199</v>
-      </c>
-      <c r="AX7" s="15">
+        <v>0.5607352210229557</v>
+      </c>
+      <c r="BA7" s="15">
         <f t="shared" si="16"/>
-        <v>0.8</v>
-      </c>
-      <c r="AY7" s="15">
-        <f t="shared" si="17"/>
-        <v>0.16</v>
-      </c>
-      <c r="AZ7" s="15">
-        <f t="shared" si="0"/>
-        <v>0.5607352210229557</v>
-      </c>
-      <c r="BA7" s="15">
-        <f t="shared" si="1"/>
         <v>2.761192194544889</v>
       </c>
       <c r="BB7" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>4.3201336273595438E-2</v>
       </c>
       <c r="BC7" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>20.984125080616106</v>
       </c>
       <c r="BD7" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>846.21707283944363</v>
       </c>
       <c r="BE7" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>55.223843890897776</v>
       </c>
       <c r="BF7" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>7.4372284311686956</v>
       </c>
       <c r="BG7" s="15">
@@ -11891,7 +11882,7 @@
         <v>6.783623046283374</v>
       </c>
       <c r="BH7" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>527.07641798014038</v>
       </c>
       <c r="BI7" s="15">
@@ -11902,12 +11893,12 @@
         <f>1/(BH7*Parameters!$B$26)</f>
         <v>3.3550889325563528E-2</v>
       </c>
-      <c r="BK7" s="25">
+      <c r="BK7" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
       <c r="BL7" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>17.149606701432038</v>
       </c>
       <c r="BM7" s="15">
@@ -11915,23 +11906,20 @@
         <v>321.11113866056508</v>
       </c>
       <c r="BN7" s="15"/>
-      <c r="BO7" s="15"/>
-      <c r="BP7" s="15"/>
-      <c r="BQ7" s="15"/>
-      <c r="BT7" s="11" t="s">
+      <c r="BP7" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="BU7" s="1">
+      <c r="BQ7" s="1">
         <v>1.667E-7</v>
       </c>
-      <c r="BV7" s="1">
+      <c r="BR7" s="1">
         <v>-2.5660000000000002E-5</v>
       </c>
-      <c r="BW7">
+      <c r="BS7">
         <v>1.397E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -11963,91 +11951,91 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K8">
+        <f t="shared" si="17"/>
+        <v>50.75</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="18"/>
+        <v>31.35</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>986.99000575000002</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>994.42069462999996</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="19"/>
+        <v>1.6449833429166668E-2</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="19"/>
+        <v>3.6462092136433338E-2</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="20"/>
+        <v>1.6449833429166669E-3</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="21"/>
+        <v>1.6573678243833332E-3</v>
+      </c>
+      <c r="S8">
         <f t="shared" si="2"/>
-        <v>50.75</v>
-      </c>
-      <c r="L8">
+        <v>408.09898259416673</v>
+      </c>
+      <c r="T8">
         <f t="shared" si="3"/>
-        <v>31.35</v>
-      </c>
-      <c r="M8">
-        <f>$BU$6*K8^2+$BV$6*K8+$BW$6</f>
-        <v>986.99000575000002</v>
-      </c>
-      <c r="N8">
-        <f>$BU$6*L8^2+$BV$6*L8+$BW$6</f>
-        <v>994.42069462999996</v>
-      </c>
-      <c r="O8">
+        <v>548.67791625983568</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="22"/>
+        <v>140.57893366566896</v>
+      </c>
+      <c r="V8">
         <f t="shared" si="4"/>
-        <v>1.6449833429166668E-2</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="4"/>
-        <v>3.6462092136433338E-2</v>
-      </c>
-      <c r="Q8">
+        <v>41.892289702859294</v>
+      </c>
+      <c r="W8">
         <f t="shared" si="5"/>
-        <v>1.6449833429166669E-3</v>
-      </c>
-      <c r="R8">
+        <v>20.599999999999994</v>
+      </c>
+      <c r="X8">
         <f t="shared" si="6"/>
-        <v>1.6573678243833332E-3</v>
-      </c>
-      <c r="S8">
-        <f>O8*$BV$15*(C8-E8)</f>
-        <v>408.09898259416673</v>
-      </c>
-      <c r="T8">
-        <f>P8*$BV$15*(F8-H8)</f>
-        <v>548.67791625983568</v>
-      </c>
-      <c r="U8">
+        <v>18.200000000000003</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="23"/>
+        <v>0.14142135623730953</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="24"/>
+        <v>19.375232436709815</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="25"/>
+        <v>0.4799788879387169</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="26"/>
+        <v>0.52130040358090346</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="27"/>
+        <v>0.10021315718412432</v>
+      </c>
+      <c r="AD8">
         <f t="shared" si="7"/>
-        <v>140.57893366566896</v>
-      </c>
-      <c r="V8">
-        <f>SQRT((O8*$BV$15)^2*Y8^2+((C8-E8)*($BV$15))^2*Q8^2)</f>
-        <v>41.892289702859294</v>
-      </c>
-      <c r="W8">
-        <f>(C8-F8)</f>
-        <v>20.599999999999994</v>
-      </c>
-      <c r="X8">
-        <f>(E8-H8)</f>
-        <v>18.200000000000003</v>
-      </c>
-      <c r="Y8">
+        <v>21.062920608939422</v>
+      </c>
+      <c r="AE8">
         <f t="shared" si="8"/>
-        <v>0.14142135623730953</v>
-      </c>
-      <c r="Z8">
-        <f t="shared" si="9"/>
-        <v>19.375232436709815</v>
-      </c>
-      <c r="AA8">
-        <f t="shared" si="10"/>
-        <v>0.4799788879387169</v>
-      </c>
-      <c r="AB8">
-        <f t="shared" si="11"/>
-        <v>0.52130040358090346</v>
-      </c>
-      <c r="AC8">
-        <f t="shared" si="12"/>
-        <v>0.10021315718412432</v>
-      </c>
-      <c r="AD8">
-        <f>S8/Z8</f>
-        <v>21.062920608939422</v>
-      </c>
-      <c r="AE8">
-        <f>T8/Z8</f>
         <v>28.318520464315466</v>
       </c>
       <c r="AF8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>2.1621856762977272</v>
       </c>
       <c r="AG8">
@@ -12059,7 +12047,7 @@
         <v>500.78139032720026</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>459.90744084265407</v>
       </c>
       <c r="AJ8">
@@ -12087,71 +12075,71 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AP8" s="1">
-        <f>$BU$7*K8^2+$BV$7*K8+$BW$7</f>
+        <f t="shared" si="9"/>
         <v>5.2410126875000003E-4</v>
       </c>
       <c r="AQ8" s="1">
-        <f>$BU$7*L8^2+$BV$7*L8+$BW$7</f>
+        <f t="shared" si="10"/>
         <v>7.5639551074999989E-4</v>
       </c>
       <c r="AR8" s="13">
-        <f>M8*AL8*AN8/AP8</f>
+        <f t="shared" si="11"/>
         <v>2497.6778910823605</v>
       </c>
       <c r="AS8" s="13">
-        <f>N8*AM8*AO8/AQ8</f>
+        <f t="shared" si="12"/>
         <v>1394.922513543318</v>
       </c>
       <c r="AT8" s="1">
-        <f>$BU$9*K8^2+$BV$9*K8+$BW$9</f>
+        <f t="shared" si="13"/>
         <v>0.64480008193749994</v>
       </c>
       <c r="AU8" s="1">
-        <f>$BU$9*L8^2+$BV$9*L8+$BW$9</f>
+        <f t="shared" si="14"/>
         <v>0.62124642747749992</v>
       </c>
       <c r="AV8" s="15">
+        <f t="shared" si="30"/>
+        <v>3.3057065588475796</v>
+      </c>
+      <c r="AW8" s="15">
+        <f t="shared" si="30"/>
+        <v>4.9517557062035005</v>
+      </c>
+      <c r="AX8" s="15">
+        <f t="shared" si="31"/>
+        <v>0.8</v>
+      </c>
+      <c r="AY8" s="15">
+        <f t="shared" si="32"/>
+        <v>0.16</v>
+      </c>
+      <c r="AZ8" s="15">
         <f t="shared" si="15"/>
-        <v>3.3057065588475796</v>
-      </c>
-      <c r="AW8" s="15">
-        <f t="shared" si="15"/>
-        <v>4.9517557062035005</v>
-      </c>
-      <c r="AX8" s="15">
+        <v>0.55796900541732719</v>
+      </c>
+      <c r="BA8" s="15">
         <f t="shared" si="16"/>
-        <v>0.8</v>
-      </c>
-      <c r="AY8" s="15">
-        <f t="shared" si="17"/>
-        <v>0.16</v>
-      </c>
-      <c r="AZ8" s="15">
-        <f t="shared" si="0"/>
-        <v>0.55796900541732719</v>
-      </c>
-      <c r="BA8" s="15">
-        <f t="shared" si="1"/>
         <v>2.7629262064599418</v>
       </c>
       <c r="BB8" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>4.8510765495024769E-2</v>
       </c>
       <c r="BC8" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>13.611224196815911</v>
       </c>
       <c r="BD8" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>548.53240483603633</v>
       </c>
       <c r="BE8" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>55.25852412919884</v>
       </c>
       <c r="BF8" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>7.438784950135898</v>
       </c>
       <c r="BG8" s="15">
@@ -12159,7 +12147,7 @@
         <v>6.7850427738116617</v>
       </c>
       <c r="BH8" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>526.89794793906515</v>
       </c>
       <c r="BI8" s="15">
@@ -12170,12 +12158,12 @@
         <f>1/(BH8*Parameters!$B$26)</f>
         <v>3.356225362982674E-2</v>
       </c>
-      <c r="BK8" s="25">
+      <c r="BK8" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
       <c r="BL8" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>14.068590657541794</v>
       </c>
       <c r="BM8" s="15">
@@ -12183,19 +12171,16 @@
         <v>263.42185240991</v>
       </c>
       <c r="BN8" s="15"/>
-      <c r="BO8" s="15"/>
-      <c r="BP8" s="15"/>
-      <c r="BQ8" s="15"/>
-      <c r="BT8" s="11" t="s">
+      <c r="BP8" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="BU8" s="23" t="s">
+      <c r="BQ8" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="BV8" s="23"/>
-      <c r="BW8" s="23"/>
+      <c r="BR8" s="25"/>
+      <c r="BS8" s="25"/>
     </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -12227,91 +12212,91 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K9">
+        <f t="shared" si="17"/>
+        <v>51.1</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="18"/>
+        <v>31.5</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>986.83236148000003</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>994.37309300000004</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="19"/>
+        <v>1.9736647229599998E-2</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="19"/>
+        <v>3.6460346743333337E-2</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="20"/>
+        <v>1.6447206024666667E-3</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="21"/>
+        <v>1.6572884883333334E-3</v>
+      </c>
+      <c r="S9">
         <f t="shared" si="2"/>
-        <v>51.1</v>
-      </c>
-      <c r="L9">
+        <v>481.61366569669917</v>
+      </c>
+      <c r="T9">
         <f t="shared" si="3"/>
-        <v>31.5</v>
-      </c>
-      <c r="M9">
-        <f>$BU$6*K9^2+$BV$6*K9+$BW$6</f>
-        <v>986.83236148000003</v>
-      </c>
-      <c r="N9">
-        <f>$BU$6*L9^2+$BV$6*L9+$BW$6</f>
-        <v>994.37309300000004</v>
-      </c>
-      <c r="O9">
+        <v>593.13692082054672</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="22"/>
+        <v>111.52325512384755</v>
+      </c>
+      <c r="V9">
         <f t="shared" si="4"/>
-        <v>1.9736647229599998E-2</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="4"/>
-        <v>3.6460346743333337E-2</v>
-      </c>
-      <c r="Q9">
+        <v>41.708966930308762</v>
+      </c>
+      <c r="W9">
         <f t="shared" si="5"/>
-        <v>1.6447206024666667E-3</v>
-      </c>
-      <c r="R9">
+        <v>20.6</v>
+      </c>
+      <c r="X9">
         <f t="shared" si="6"/>
-        <v>1.6572884883333334E-3</v>
-      </c>
-      <c r="S9">
-        <f>O9*$BV$15*(C9-E9)</f>
-        <v>481.61366569669917</v>
-      </c>
-      <c r="T9">
-        <f>P9*$BV$15*(F9-H9)</f>
-        <v>593.13692082054672</v>
-      </c>
-      <c r="U9">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="23"/>
+        <v>0.14142135623730953</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="24"/>
+        <v>19.582981375794102</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="25"/>
+        <v>0.48340429069562818</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="26"/>
+        <v>0.51746521437979187</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="27"/>
+        <v>0.10014489066907682</v>
+      </c>
+      <c r="AD9">
         <f t="shared" si="7"/>
-        <v>111.52325512384755</v>
-      </c>
-      <c r="V9">
-        <f>SQRT((O9*$BV$15)^2*Y9^2+((C9-E9)*($BV$15))^2*Q9^2)</f>
-        <v>41.708966930308762</v>
-      </c>
-      <c r="W9">
-        <f>(C9-F9)</f>
-        <v>20.6</v>
-      </c>
-      <c r="X9">
-        <f>(E9-H9)</f>
-        <v>18.600000000000001</v>
-      </c>
-      <c r="Y9">
+        <v>24.593480249744118</v>
+      </c>
+      <c r="AE9">
         <f t="shared" si="8"/>
-        <v>0.14142135623730953</v>
-      </c>
-      <c r="Z9">
-        <f t="shared" si="9"/>
-        <v>19.582981375794102</v>
-      </c>
-      <c r="AA9">
-        <f t="shared" si="10"/>
-        <v>0.48340429069562818</v>
-      </c>
-      <c r="AB9">
-        <f t="shared" si="11"/>
-        <v>0.51746521437979187</v>
-      </c>
-      <c r="AC9">
-        <f t="shared" si="12"/>
-        <v>0.10014489066907682</v>
-      </c>
-      <c r="AD9">
-        <f>S9/Z9</f>
-        <v>24.593480249744118</v>
-      </c>
-      <c r="AE9">
-        <f>T9/Z9</f>
         <v>30.288387117280536</v>
       </c>
       <c r="AF9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>2.1298857158977929</v>
       </c>
       <c r="AG9">
@@ -12323,7 +12308,7 @@
         <v>535.61628088845339</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>512.44401229295647</v>
       </c>
       <c r="AJ9">
@@ -12351,71 +12336,71 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AP9" s="1">
-        <f>$BU$7*K9^2+$BV$7*K9+$BW$7</f>
+        <f t="shared" si="9"/>
         <v>5.2106270699999986E-4</v>
       </c>
       <c r="AQ9" s="1">
-        <f>$BU$7*L9^2+$BV$7*L9+$BW$7</f>
+        <f t="shared" si="10"/>
         <v>7.5411807499999994E-4</v>
       </c>
       <c r="AR9" s="13">
-        <f>M9*AL9*AN9/AP9</f>
+        <f t="shared" si="11"/>
         <v>3014.2101175663324</v>
       </c>
       <c r="AS9" s="13">
-        <f>N9*AM9*AO9/AQ9</f>
+        <f t="shared" si="12"/>
         <v>1399.068203199055</v>
       </c>
       <c r="AT9" s="1">
-        <f>$BU$9*K9^2+$BV$9*K9+$BW$9</f>
+        <f t="shared" si="13"/>
         <v>0.64517164759000001</v>
       </c>
       <c r="AU9" s="1">
-        <f>$BU$9*L9^2+$BV$9*L9+$BW$9</f>
+        <f t="shared" si="14"/>
         <v>0.62145083774999998</v>
       </c>
       <c r="AV9" s="15">
+        <f t="shared" si="30"/>
+        <v>3.2846484145498365</v>
+      </c>
+      <c r="AW9" s="15">
+        <f t="shared" si="30"/>
+        <v>4.9352225867604433</v>
+      </c>
+      <c r="AX9" s="15">
+        <f t="shared" si="31"/>
+        <v>0.8</v>
+      </c>
+      <c r="AY9" s="15">
+        <f t="shared" si="32"/>
+        <v>0.16</v>
+      </c>
+      <c r="AZ9" s="15">
         <f t="shared" si="15"/>
-        <v>3.2846484145498365</v>
-      </c>
-      <c r="AW9" s="15">
-        <f t="shared" si="15"/>
-        <v>4.9352225867604433</v>
-      </c>
-      <c r="AX9" s="15">
+        <v>0.55962728127962202</v>
+      </c>
+      <c r="BA9" s="15">
         <f t="shared" si="16"/>
-        <v>0.8</v>
-      </c>
-      <c r="AY9" s="15">
-        <f t="shared" si="17"/>
-        <v>0.16</v>
-      </c>
-      <c r="AZ9" s="15">
-        <f t="shared" si="0"/>
-        <v>0.55962728127962202</v>
-      </c>
-      <c r="BA9" s="15">
-        <f t="shared" si="1"/>
         <v>2.7618851987385304</v>
       </c>
       <c r="BB9" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>4.5486585483990323E-2</v>
       </c>
       <c r="BC9" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>17.428172279447747</v>
       </c>
       <c r="BD9" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>702.76016400085427</v>
       </c>
       <c r="BE9" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>55.237703974770611</v>
       </c>
       <c r="BF9" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>7.4378505778119504</v>
       </c>
       <c r="BG9" s="15">
@@ -12423,7 +12408,7 @@
         <v>6.7841905168601366</v>
       </c>
       <c r="BH9" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>527.00511001979214</v>
       </c>
       <c r="BI9" s="15">
@@ -12434,12 +12419,12 @@
         <f>1/(BH9*Parameters!$B$26)</f>
         <v>3.3555429026299224E-2</v>
       </c>
-      <c r="BK9" s="25">
+      <c r="BK9" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
       <c r="BL9" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>15.844333400355431</v>
       </c>
       <c r="BM9" s="15">
@@ -12447,23 +12432,20 @@
         <v>296.67105654853947</v>
       </c>
       <c r="BN9" s="15"/>
-      <c r="BO9" s="15"/>
-      <c r="BP9" s="15"/>
-      <c r="BQ9" s="15"/>
-      <c r="BT9" s="11" t="s">
+      <c r="BP9" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="BU9" s="1">
+      <c r="BQ9" s="1">
         <v>-7.7209999999999994E-6</v>
       </c>
-      <c r="BV9">
+      <c r="BR9">
         <v>1.848E-3</v>
       </c>
-      <c r="BW9">
+      <c r="BS9">
         <v>0.57089999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -12495,91 +12477,91 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K10">
+        <f t="shared" si="17"/>
+        <v>51.3</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="18"/>
+        <v>31.65</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>986.74190371999998</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>994.32533782999997</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="19"/>
+        <v>2.3023977753466665E-2</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="19"/>
+        <v>3.6458595720433334E-2</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="20"/>
+        <v>1.6445698395333333E-3</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="21"/>
+        <v>1.6572088963833333E-3</v>
+      </c>
+      <c r="S10">
         <f t="shared" si="2"/>
-        <v>51.3</v>
-      </c>
-      <c r="L10">
+        <v>561.83110514009354</v>
+      </c>
+      <c r="T10">
         <f t="shared" si="3"/>
-        <v>31.65</v>
-      </c>
-      <c r="M10">
-        <f>$BU$6*K10^2+$BV$6*K10+$BW$6</f>
-        <v>986.74190371999998</v>
-      </c>
-      <c r="N10">
-        <f>$BU$6*L10^2+$BV$6*L10+$BW$6</f>
-        <v>994.32533782999997</v>
-      </c>
-      <c r="O10">
+        <v>637.5915678185097</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="22"/>
+        <v>75.760462678416161</v>
+      </c>
+      <c r="V10">
         <f t="shared" si="4"/>
-        <v>2.3023977753466665E-2</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="4"/>
-        <v>3.6458595720433334E-2</v>
-      </c>
-      <c r="Q10">
+        <v>42.25924755707706</v>
+      </c>
+      <c r="W10">
         <f t="shared" si="5"/>
-        <v>1.6445698395333333E-3</v>
-      </c>
-      <c r="R10">
+        <v>20.5</v>
+      </c>
+      <c r="X10">
         <f t="shared" si="6"/>
-        <v>1.6572088963833333E-3</v>
-      </c>
-      <c r="S10">
-        <f>O10*$BV$15*(C10-E10)</f>
-        <v>561.83110514009354</v>
-      </c>
-      <c r="T10">
-        <f>P10*$BV$15*(F10-H10)</f>
-        <v>637.5915678185097</v>
-      </c>
-      <c r="U10">
+        <v>18.799999999999997</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="23"/>
+        <v>0.14142135623730953</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="24"/>
+        <v>19.637737729169647</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="25"/>
+        <v>0.48587891903371744</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="26"/>
+        <v>0.51474573877546947</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="27"/>
+        <v>0.10010409577523567</v>
+      </c>
+      <c r="AD10">
         <f t="shared" si="7"/>
-        <v>75.760462678416161</v>
-      </c>
-      <c r="V10">
-        <f>SQRT((O10*$BV$15)^2*Y10^2+((C10-E10)*($BV$15))^2*Q10^2)</f>
-        <v>42.25924755707706</v>
-      </c>
-      <c r="W10">
-        <f>(C10-F10)</f>
-        <v>20.5</v>
-      </c>
-      <c r="X10">
-        <f>(E10-H10)</f>
-        <v>18.799999999999997</v>
-      </c>
-      <c r="Y10">
+        <v>28.609767219039529</v>
+      </c>
+      <c r="AE10">
         <f t="shared" si="8"/>
-        <v>0.14142135623730953</v>
-      </c>
-      <c r="Z10">
-        <f t="shared" si="9"/>
-        <v>19.637737729169647</v>
-      </c>
-      <c r="AA10">
-        <f t="shared" si="10"/>
-        <v>0.48587891903371744</v>
-      </c>
-      <c r="AB10">
-        <f t="shared" si="11"/>
-        <v>0.51474573877546947</v>
-      </c>
-      <c r="AC10">
-        <f t="shared" si="12"/>
-        <v>0.10010409577523567</v>
-      </c>
-      <c r="AD10">
-        <f>S10/Z10</f>
-        <v>28.609767219039529</v>
-      </c>
-      <c r="AE10">
-        <f>T10/Z10</f>
         <v>32.467668965322787</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>2.1519686833153835</v>
       </c>
       <c r="AG10">
@@ -12591,7 +12573,7 @@
         <v>574.15444516693833</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>571.66383968463219</v>
       </c>
       <c r="AJ10">
@@ -12619,71 +12601,71 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AP10" s="1">
-        <f>$BU$7*K10^2+$BV$7*K10+$BW$7</f>
+        <f t="shared" si="9"/>
         <v>5.1934472299999986E-4</v>
       </c>
       <c r="AQ10" s="1">
-        <f>$BU$7*L10^2+$BV$7*L10+$BW$7</f>
+        <f t="shared" si="10"/>
         <v>7.5184814075000004E-4</v>
       </c>
       <c r="AR10" s="13">
-        <f>M10*AL10*AN10/AP10</f>
+        <f t="shared" si="11"/>
         <v>3527.8878429097394</v>
       </c>
       <c r="AS10" s="13">
-        <f>N10*AM10*AO10/AQ10</f>
+        <f t="shared" si="12"/>
         <v>1403.2247912838757</v>
       </c>
       <c r="AT10" s="1">
-        <f>$BU$9*K10^2+$BV$9*K10+$BW$9</f>
+        <f t="shared" si="13"/>
         <v>0.64538312150999999</v>
       </c>
       <c r="AU10" s="1">
-        <f>$BU$9*L10^2+$BV$9*L10+$BW$9</f>
+        <f t="shared" si="14"/>
         <v>0.62165490057749995</v>
       </c>
       <c r="AV10" s="15">
+        <f t="shared" si="30"/>
+        <v>3.2727459365518468</v>
+      </c>
+      <c r="AW10" s="15">
+        <f t="shared" si="30"/>
+        <v>4.9187521655337569</v>
+      </c>
+      <c r="AX10" s="15">
+        <f t="shared" si="31"/>
+        <v>0.8</v>
+      </c>
+      <c r="AY10" s="15">
+        <f t="shared" si="32"/>
+        <v>0.16</v>
+      </c>
+      <c r="AZ10" s="15">
         <f t="shared" si="15"/>
-        <v>3.2727459365518468</v>
-      </c>
-      <c r="AW10" s="15">
-        <f t="shared" si="15"/>
-        <v>4.9187521655337569</v>
-      </c>
-      <c r="AX10" s="15">
+        <v>0.56128991651355031</v>
+      </c>
+      <c r="BA10" s="15">
         <f t="shared" si="16"/>
-        <v>0.8</v>
-      </c>
-      <c r="AY10" s="15">
-        <f t="shared" si="17"/>
-        <v>0.16</v>
-      </c>
-      <c r="AZ10" s="15">
-        <f t="shared" si="0"/>
-        <v>0.56128991651355031</v>
-      </c>
-      <c r="BA10" s="15">
-        <f t="shared" si="1"/>
         <v>2.7608459923432873</v>
       </c>
       <c r="BB10" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>4.3167211180591324E-2</v>
       </c>
       <c r="BC10" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>21.022250889831948</v>
       </c>
       <c r="BD10" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>847.96286877788236</v>
       </c>
       <c r="BE10" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>55.216919846865743</v>
       </c>
       <c r="BF10" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>7.4369175880868132</v>
       </c>
       <c r="BG10" s="15">
@@ -12691,7 +12673,7 @@
         <v>6.7833395210005953</v>
       </c>
       <c r="BH10" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>527.11203193888139</v>
       </c>
       <c r="BI10" s="15">
@@ -12702,12 +12684,12 @@
         <f>1/(BH10*Parameters!$B$26)</f>
         <v>3.3548622483002999E-2</v>
       </c>
-      <c r="BK10" s="25">
+      <c r="BK10" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
       <c r="BL10" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>17.164521880800127</v>
       </c>
       <c r="BM10" s="15">
@@ -12715,11 +12697,8 @@
         <v>321.39041213392198</v>
       </c>
       <c r="BN10" s="15"/>
-      <c r="BO10" s="15"/>
-      <c r="BP10" s="15"/>
-      <c r="BQ10" s="15"/>
     </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -12751,91 +12730,91 @@
         <v>2</v>
       </c>
       <c r="K11">
+        <f t="shared" si="17"/>
+        <v>51.45</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="18"/>
+        <v>31.7</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>986.67388127000004</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>994.30938532000005</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="19"/>
+        <v>2.3022390562966667E-2</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="19"/>
+        <v>3.3143646177333334E-2</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="20"/>
+        <v>1.6444564687833334E-3</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="21"/>
+        <v>1.6571823088666669E-3</v>
+      </c>
+      <c r="S11">
         <f t="shared" si="2"/>
-        <v>51.45</v>
-      </c>
-      <c r="L11">
+        <v>552.42916827555393</v>
+      </c>
+      <c r="T11">
         <f t="shared" si="3"/>
-        <v>31.7</v>
-      </c>
-      <c r="M11">
-        <f>$BU$6*K11^2+$BV$6*K11+$BW$6</f>
-        <v>986.67388127000004</v>
-      </c>
-      <c r="N11">
-        <f>$BU$6*L11^2+$BV$6*L11+$BW$6</f>
-        <v>994.30938532000005</v>
-      </c>
-      <c r="O11">
+        <v>620.05796141478766</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="22"/>
+        <v>67.628793139233721</v>
+      </c>
+      <c r="V11">
         <f t="shared" si="4"/>
-        <v>2.3022390562966667E-2</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="4"/>
-        <v>3.3143646177333334E-2</v>
-      </c>
-      <c r="Q11">
+        <v>41.621746754303992</v>
+      </c>
+      <c r="W11">
         <f t="shared" si="5"/>
-        <v>1.6444564687833334E-3</v>
-      </c>
-      <c r="R11">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="X11">
         <f t="shared" si="6"/>
-        <v>1.6571823088666669E-3</v>
-      </c>
-      <c r="S11">
-        <f>O11*$BV$15*(C11-E11)</f>
-        <v>552.42916827555393</v>
-      </c>
-      <c r="T11">
-        <f>P11*$BV$15*(F11-H11)</f>
-        <v>620.05796141478766</v>
-      </c>
-      <c r="U11">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="23"/>
+        <v>0.14142135623730953</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="24"/>
+        <v>19.742867137463531</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="25"/>
+        <v>0.48920387619603906</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="26"/>
+        <v>0.51115749021279555</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="27"/>
+        <v>0.10006022309448184</v>
+      </c>
+      <c r="AD11">
         <f t="shared" si="7"/>
-        <v>67.628793139233721</v>
-      </c>
-      <c r="V11">
-        <f>SQRT((O11*$BV$15)^2*Y11^2+((C11-E11)*($BV$15))^2*Q11^2)</f>
-        <v>41.621746754303992</v>
-      </c>
-      <c r="W11">
-        <f>(C11-F11)</f>
-        <v>20.399999999999999</v>
-      </c>
-      <c r="X11">
-        <f>(E11-H11)</f>
-        <v>19.100000000000001</v>
-      </c>
-      <c r="Y11">
+        <v>27.981202751817101</v>
+      </c>
+      <c r="AE11">
         <f t="shared" si="8"/>
-        <v>0.14142135623730953</v>
-      </c>
-      <c r="Z11">
-        <f t="shared" si="9"/>
-        <v>19.742867137463531</v>
-      </c>
-      <c r="AA11">
-        <f t="shared" si="10"/>
-        <v>0.48920387619603906</v>
-      </c>
-      <c r="AB11">
-        <f t="shared" si="11"/>
-        <v>0.51115749021279555</v>
-      </c>
-      <c r="AC11">
-        <f t="shared" si="12"/>
-        <v>0.10006022309448184</v>
-      </c>
-      <c r="AD11">
-        <f>S11/Z11</f>
-        <v>27.981202751817101</v>
-      </c>
-      <c r="AE11">
-        <f>T11/Z11</f>
         <v>31.406682580473959</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>2.1082186805269365</v>
       </c>
       <c r="AG11">
@@ -12847,7 +12826,7 @@
         <v>555.39208653339495</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>556.03021399221223</v>
       </c>
       <c r="AJ11">
@@ -12875,71 +12854,71 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AP11" s="1">
-        <f>$BU$7*K11^2+$BV$7*K11+$BW$7</f>
+        <f t="shared" si="9"/>
         <v>5.1806498675000001E-4</v>
       </c>
       <c r="AQ11" s="1">
-        <f>$BU$7*L11^2+$BV$7*L11+$BW$7</f>
+        <f t="shared" si="10"/>
         <v>7.5109316299999999E-4</v>
       </c>
       <c r="AR11" s="13">
-        <f>M11*AL11*AN11/AP11</f>
+        <f t="shared" si="11"/>
         <v>3536.3587132906623</v>
       </c>
       <c r="AS11" s="13">
-        <f>N11*AM11*AO11/AQ11</f>
+        <f t="shared" si="12"/>
         <v>1276.9206709911173</v>
       </c>
       <c r="AT11" s="1">
-        <f>$BU$9*K11^2+$BV$9*K11+$BW$9</f>
+        <f t="shared" si="13"/>
         <v>0.6455413215975</v>
       </c>
       <c r="AU11" s="1">
-        <f>$BU$9*L11^2+$BV$9*L11+$BW$9</f>
+        <f t="shared" si="14"/>
         <v>0.62172284430999991</v>
       </c>
       <c r="AV11" s="15">
+        <f t="shared" si="30"/>
+        <v>3.2638813823694499</v>
+      </c>
+      <c r="AW11" s="15">
+        <f t="shared" si="30"/>
+        <v>4.9132759426125974</v>
+      </c>
+      <c r="AX11" s="15">
+        <f t="shared" si="31"/>
+        <v>0.8</v>
+      </c>
+      <c r="AY11" s="15">
+        <f t="shared" si="32"/>
+        <v>0.16</v>
+      </c>
+      <c r="AZ11" s="15">
         <f t="shared" si="15"/>
-        <v>3.2638813823694499</v>
-      </c>
-      <c r="AW11" s="15">
-        <f t="shared" si="15"/>
-        <v>4.9132759426125974</v>
-      </c>
-      <c r="AX11" s="15">
+        <v>0.51076826839644696</v>
+      </c>
+      <c r="BA11" s="15">
         <f t="shared" si="16"/>
-        <v>0.8</v>
-      </c>
-      <c r="AY11" s="15">
-        <f t="shared" si="17"/>
-        <v>0.16</v>
-      </c>
-      <c r="AZ11" s="15">
-        <f t="shared" si="0"/>
-        <v>0.51076826839644696</v>
-      </c>
-      <c r="BA11" s="15">
-        <f t="shared" si="1"/>
         <v>2.5095454453621571</v>
       </c>
       <c r="BB11" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>4.3133246769135547E-2</v>
       </c>
       <c r="BC11" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>21.060227182861379</v>
       </c>
       <c r="BD11" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>849.70293054799549</v>
       </c>
       <c r="BE11" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>50.190908907243141</v>
       </c>
       <c r="BF11" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>7.2040590408035019</v>
       </c>
       <c r="BG11" s="15">
@@ -12947,7 +12926,7 @@
         <v>6.5709452638529884</v>
       </c>
       <c r="BH11" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>510.66334740600036</v>
       </c>
       <c r="BI11" s="15">
@@ -12958,12 +12937,12 @@
         <f>1/(BH11*Parameters!$B$26)</f>
         <v>3.4629237942363361E-2</v>
       </c>
-      <c r="BK11" s="25">
+      <c r="BK11" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
       <c r="BL11" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>16.865603129335142</v>
       </c>
       <c r="BM11" s="15">
@@ -12971,18 +12950,15 @@
         <v>315.79342426586197</v>
       </c>
       <c r="BN11" s="15"/>
-      <c r="BO11" s="15"/>
-      <c r="BP11" s="15"/>
-      <c r="BQ11" s="15"/>
-      <c r="BZ11" s="11" t="s">
+      <c r="BV11" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="CA11">
+      <c r="BW11">
         <f>$D$5*$G$11^2+$E$5*$G$11+$F$5</f>
         <v>43212.273000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -13014,91 +12990,91 @@
         <v>1.8</v>
       </c>
       <c r="K12">
+        <f t="shared" si="17"/>
+        <v>51.5</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="18"/>
+        <v>31.95</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>986.65117299999997</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>994.22936687000004</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="19"/>
+        <v>2.3021860703333331E-2</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="19"/>
+        <v>2.9826881006100002E-2</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="20"/>
+        <v>1.6444186216666669E-3</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="21"/>
+        <v>1.6570489447833333E-3</v>
+      </c>
+      <c r="S12">
         <f t="shared" si="2"/>
-        <v>51.5</v>
-      </c>
-      <c r="L12">
+        <v>543.05346338664833</v>
+      </c>
+      <c r="T12">
         <f t="shared" si="3"/>
-        <v>31.95</v>
-      </c>
-      <c r="M12">
-        <f>$BU$6*K12^2+$BV$6*K12+$BW$6</f>
-        <v>986.65117299999997</v>
-      </c>
-      <c r="N12">
-        <f>$BU$6*L12^2+$BV$6*L12+$BW$6</f>
-        <v>994.22936687000004</v>
-      </c>
-      <c r="O12">
+        <v>618.66021776422463</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="22"/>
+        <v>75.606754377576294</v>
+      </c>
+      <c r="V12">
         <f t="shared" si="4"/>
-        <v>2.3021860703333331E-2</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="4"/>
-        <v>2.9826881006100002E-2</v>
-      </c>
-      <c r="Q12">
+        <v>40.987303760286395</v>
+      </c>
+      <c r="W12">
         <f t="shared" si="5"/>
-        <v>1.6444186216666669E-3</v>
-      </c>
-      <c r="R12">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="X12">
         <f t="shared" si="6"/>
-        <v>1.6570489447833333E-3</v>
-      </c>
-      <c r="S12">
-        <f>O12*$BV$15*(C12-E12)</f>
-        <v>543.05346338664833</v>
-      </c>
-      <c r="T12">
-        <f>P12*$BV$15*(F12-H12)</f>
-        <v>618.66021776422463</v>
-      </c>
-      <c r="U12">
+        <v>19.200000000000003</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="23"/>
+        <v>0.14142135623730953</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="24"/>
+        <v>19.54791115990157</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="25"/>
+        <v>0.49408480736804194</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="26"/>
+        <v>0.50602205694146363</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="27"/>
+        <v>0.10001781031228241</v>
+      </c>
+      <c r="AD12">
         <f t="shared" si="7"/>
-        <v>75.606754377576294</v>
-      </c>
-      <c r="V12">
-        <f>SQRT((O12*$BV$15)^2*Y12^2+((C12-E12)*($BV$15))^2*Q12^2)</f>
-        <v>40.987303760286395</v>
-      </c>
-      <c r="W12">
-        <f>(C12-F12)</f>
-        <v>19.899999999999999</v>
-      </c>
-      <c r="X12">
-        <f>(E12-H12)</f>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="Y12">
+        <v>27.780639012755916</v>
+      </c>
+      <c r="AE12">
         <f t="shared" si="8"/>
-        <v>0.14142135623730953</v>
-      </c>
-      <c r="Z12">
-        <f t="shared" si="9"/>
-        <v>19.54791115990157</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" si="10"/>
-        <v>0.49408480736804194</v>
-      </c>
-      <c r="AB12">
-        <f t="shared" si="11"/>
-        <v>0.50602205694146363</v>
-      </c>
-      <c r="AC12">
-        <f t="shared" si="12"/>
-        <v>0.10001781031228241</v>
-      </c>
-      <c r="AD12">
-        <f>S12/Z12</f>
-        <v>27.780639012755916</v>
-      </c>
-      <c r="AE12">
-        <f>T12/Z12</f>
         <v>31.648405433378272</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>2.0967887528208169</v>
       </c>
       <c r="AG12">
@@ -13110,7 +13086,7 @@
         <v>559.66668507761676</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>556.17246885953682</v>
       </c>
       <c r="AJ12">
@@ -13138,71 +13114,71 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AP12" s="1">
-        <f>$BU$7*K12^2+$BV$7*K12+$BW$7</f>
+        <f t="shared" si="9"/>
         <v>5.1764007500000001E-4</v>
       </c>
       <c r="AQ12" s="1">
-        <f>$BU$7*L12^2+$BV$7*L12+$BW$7</f>
+        <f t="shared" si="10"/>
         <v>7.4733077674999997E-4</v>
       </c>
       <c r="AR12" s="13">
-        <f>M12*AL12*AN12/AP12</f>
+        <f t="shared" si="11"/>
         <v>3539.1801244412522</v>
       </c>
       <c r="AS12" s="13">
-        <f>N12*AM12*AO12/AQ12</f>
+        <f t="shared" si="12"/>
         <v>1154.9213661644278</v>
       </c>
       <c r="AT12" s="1">
-        <f>$BU$9*K12^2+$BV$9*K12+$BW$9</f>
+        <f t="shared" si="13"/>
         <v>0.64559397774999994</v>
       </c>
       <c r="AU12" s="1">
-        <f>$BU$9*L12^2+$BV$9*L12+$BW$9</f>
+        <f t="shared" si="14"/>
         <v>0.6220619838975</v>
       </c>
       <c r="AV12" s="15">
+        <f t="shared" si="30"/>
+        <v>3.2609383878736158</v>
+      </c>
+      <c r="AW12" s="15">
+        <f t="shared" si="30"/>
+        <v>4.885999060735184</v>
+      </c>
+      <c r="AX12" s="15">
+        <f t="shared" si="31"/>
+        <v>0.8</v>
+      </c>
+      <c r="AY12" s="15">
+        <f t="shared" si="32"/>
+        <v>0.16</v>
+      </c>
+      <c r="AZ12" s="15">
         <f t="shared" si="15"/>
-        <v>3.2609383878736158</v>
-      </c>
-      <c r="AW12" s="15">
-        <f t="shared" si="15"/>
-        <v>4.885999060735184</v>
-      </c>
-      <c r="AX12" s="15">
+        <v>0.46196854646577112</v>
+      </c>
+      <c r="BA12" s="15">
         <f t="shared" si="16"/>
-        <v>0.8</v>
-      </c>
-      <c r="AY12" s="15">
-        <f t="shared" si="17"/>
-        <v>0.16</v>
-      </c>
-      <c r="AZ12" s="15">
-        <f t="shared" si="0"/>
-        <v>0.46196854646577112</v>
-      </c>
-      <c r="BA12" s="15">
-        <f t="shared" si="1"/>
         <v>2.257177884120956</v>
       </c>
       <c r="BB12" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>4.3121961109298203E-2</v>
       </c>
       <c r="BC12" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>21.072852501036454</v>
       </c>
       <c r="BD12" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>850.28166679269748</v>
       </c>
       <c r="BE12" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>45.143557682419114</v>
       </c>
       <c r="BF12" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>6.9539917424063109</v>
       </c>
       <c r="BG12" s="15">
@@ -13210,7 +13186,7 @@
         <v>6.342854610966798</v>
       </c>
       <c r="BH12" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>493.20609035892647</v>
       </c>
       <c r="BI12" s="15">
@@ -13221,12 +13197,12 @@
         <f>1/(BH12*Parameters!$B$26)</f>
         <v>3.5854955791192397E-2</v>
       </c>
-      <c r="BK12" s="25">
+      <c r="BK12" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
       <c r="BL12" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>16.528363368917162</v>
       </c>
       <c r="BM12" s="15">
@@ -13234,27 +13210,24 @@
         <v>309.47890957437397</v>
       </c>
       <c r="BN12" s="15"/>
-      <c r="BO12" s="15"/>
-      <c r="BP12" s="15"/>
-      <c r="BQ12" s="15"/>
-      <c r="BT12" s="23" t="s">
+      <c r="BP12" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="BU12" s="23"/>
-      <c r="BV12" s="23"/>
-      <c r="BW12" s="23"/>
-      <c r="BX12">
+      <c r="BQ12" s="25"/>
+      <c r="BR12" s="25"/>
+      <c r="BS12" s="25"/>
+      <c r="BT12">
         <v>39.799999999999997</v>
       </c>
-      <c r="BZ12" s="11" t="s">
+      <c r="BV12" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="CA12" s="1">
+      <c r="BW12" s="1">
         <f>$D$6*$G$11^2+$E$6*$G$11+$F$6</f>
         <v>46691.508000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -13286,91 +13259,91 @@
         <v>2.4</v>
       </c>
       <c r="K13">
+        <f t="shared" si="17"/>
+        <v>51.1</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="18"/>
+        <v>31.5</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>986.83236148000003</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>994.37309300000004</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="19"/>
+        <v>2.3026088434533333E-2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="19"/>
+        <v>3.9774923720000001E-2</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="20"/>
+        <v>1.6447206024666667E-3</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="21"/>
+        <v>1.6572884883333334E-3</v>
+      </c>
+      <c r="S13">
         <f t="shared" si="2"/>
-        <v>51.1</v>
-      </c>
-      <c r="L13">
+        <v>561.88260997948237</v>
+      </c>
+      <c r="T13">
         <f t="shared" si="3"/>
-        <v>31.5</v>
-      </c>
-      <c r="M13">
-        <f>$BU$6*K13^2+$BV$6*K13+$BW$6</f>
-        <v>986.83236148000003</v>
-      </c>
-      <c r="N13">
-        <f>$BU$6*L13^2+$BV$6*L13+$BW$6</f>
-        <v>994.37309300000004</v>
-      </c>
-      <c r="O13">
+        <v>614.70553612311164</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="22"/>
+        <v>52.822926143629275</v>
+      </c>
+      <c r="V13">
         <f t="shared" si="4"/>
-        <v>2.3026088434533333E-2</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="4"/>
-        <v>3.9774923720000001E-2</v>
-      </c>
-      <c r="Q13">
+        <v>42.263121596335843</v>
+      </c>
+      <c r="W13">
         <f t="shared" si="5"/>
-        <v>1.6447206024666667E-3</v>
-      </c>
-      <c r="R13">
+        <v>20.700000000000003</v>
+      </c>
+      <c r="X13">
         <f t="shared" si="6"/>
-        <v>1.6572884883333334E-3</v>
-      </c>
-      <c r="S13">
-        <f>O13*$BV$15*(C13-E13)</f>
-        <v>561.88260997948237</v>
-      </c>
-      <c r="T13">
-        <f>P13*$BV$15*(F13-H13)</f>
-        <v>614.70553612311164</v>
-      </c>
-      <c r="U13">
+        <v>18.5</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="23"/>
+        <v>0.14142135623730953</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="24"/>
+        <v>19.579404455903884</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="25"/>
+        <v>0.48178729445194574</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="26"/>
+        <v>0.51926526814857688</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="27"/>
+        <v>0.10017538777571459</v>
+      </c>
+      <c r="AD13">
         <f t="shared" si="7"/>
-        <v>52.822926143629275</v>
-      </c>
-      <c r="V13">
-        <f>SQRT((O13*$BV$15)^2*Y13^2+((C13-E13)*($BV$15))^2*Q13^2)</f>
-        <v>42.263121596335843</v>
-      </c>
-      <c r="W13">
-        <f>(C13-F13)</f>
-        <v>20.700000000000003</v>
-      </c>
-      <c r="X13">
-        <f>(E13-H13)</f>
-        <v>18.5</v>
-      </c>
-      <c r="Y13">
+        <v>28.697635377262706</v>
+      </c>
+      <c r="AE13">
         <f t="shared" si="8"/>
-        <v>0.14142135623730953</v>
-      </c>
-      <c r="Z13">
-        <f t="shared" si="9"/>
-        <v>19.579404455903884</v>
-      </c>
-      <c r="AA13">
-        <f t="shared" si="10"/>
-        <v>0.48178729445194574</v>
-      </c>
-      <c r="AB13">
-        <f t="shared" si="11"/>
-        <v>0.51926526814857688</v>
-      </c>
-      <c r="AC13">
-        <f t="shared" si="12"/>
-        <v>0.10017538777571459</v>
-      </c>
-      <c r="AD13">
-        <f>S13/Z13</f>
-        <v>28.697635377262706</v>
-      </c>
-      <c r="AE13">
-        <f>T13/Z13</f>
         <v>31.395517545364161</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>2.1585781555761483</v>
       </c>
       <c r="AG13">
@@ -13382,7 +13355,7 @@
         <v>555.19464536367059</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>563.05798051559827</v>
       </c>
       <c r="AJ13">
@@ -13410,71 +13383,71 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AP13" s="1">
-        <f>$BU$7*K13^2+$BV$7*K13+$BW$7</f>
+        <f t="shared" si="9"/>
         <v>5.2106270699999986E-4</v>
       </c>
       <c r="AQ13" s="1">
-        <f>$BU$7*L13^2+$BV$7*L13+$BW$7</f>
+        <f t="shared" si="10"/>
         <v>7.5411807499999994E-4</v>
       </c>
       <c r="AR13" s="13">
-        <f>M13*AL13*AN13/AP13</f>
+        <f t="shared" si="11"/>
         <v>3516.5784704940543</v>
       </c>
       <c r="AS13" s="13">
-        <f>N13*AM13*AO13/AQ13</f>
+        <f t="shared" si="12"/>
         <v>1526.2562216716963</v>
       </c>
       <c r="AT13" s="1">
-        <f>$BU$9*K13^2+$BV$9*K13+$BW$9</f>
+        <f t="shared" si="13"/>
         <v>0.64517164759000001</v>
       </c>
       <c r="AU13" s="1">
-        <f>$BU$9*L13^2+$BV$9*L13+$BW$9</f>
+        <f t="shared" si="14"/>
         <v>0.62145083774999998</v>
       </c>
       <c r="AV13" s="15">
+        <f t="shared" si="30"/>
+        <v>3.2846484145498365</v>
+      </c>
+      <c r="AW13" s="15">
+        <f t="shared" si="30"/>
+        <v>4.9352225867604433</v>
+      </c>
+      <c r="AX13" s="15">
+        <f t="shared" si="31"/>
+        <v>0.8</v>
+      </c>
+      <c r="AY13" s="15">
+        <f t="shared" si="32"/>
+        <v>0.16</v>
+      </c>
+      <c r="AZ13" s="15">
         <f t="shared" si="15"/>
-        <v>3.2846484145498365</v>
-      </c>
-      <c r="AW13" s="15">
-        <f t="shared" si="15"/>
-        <v>4.9352225867604433</v>
-      </c>
-      <c r="AX13" s="15">
+        <v>0.61050248866867851</v>
+      </c>
+      <c r="BA13" s="15">
         <f t="shared" si="16"/>
-        <v>0.8</v>
-      </c>
-      <c r="AY13" s="15">
-        <f t="shared" si="17"/>
-        <v>0.16</v>
-      </c>
-      <c r="AZ13" s="15">
-        <f t="shared" si="0"/>
-        <v>0.61050248866867851</v>
-      </c>
-      <c r="BA13" s="15">
-        <f t="shared" si="1"/>
         <v>3.0129656713511239</v>
       </c>
       <c r="BB13" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>4.3212746908061102E-2</v>
       </c>
       <c r="BC13" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>20.971383471797527</v>
       </c>
       <c r="BD13" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>845.63387667133145</v>
       </c>
       <c r="BE13" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>60.259313427022477</v>
       </c>
       <c r="BF13" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>7.656735351641859</v>
       </c>
       <c r="BG13" s="15">
@@ -13482,7 +13455,7 @@
         <v>6.9838390566320641</v>
       </c>
       <c r="BH13" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>542.51407905689575</v>
       </c>
       <c r="BI13" s="15">
@@ -13493,12 +13466,12 @@
         <f>1/(BH13*Parameters!$B$26)</f>
         <v>3.2596172612714011E-2</v>
       </c>
-      <c r="BK13" s="25">
+      <c r="BK13" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
       <c r="BL13" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>17.430144148282025</v>
       </c>
       <c r="BM13" s="15">
@@ -13506,18 +13479,15 @@
         <v>326.3639529415716</v>
       </c>
       <c r="BN13" s="15"/>
-      <c r="BO13" s="15"/>
-      <c r="BP13" s="15"/>
-      <c r="BQ13" s="15"/>
-      <c r="BZ13" s="11" t="s">
+      <c r="BV13" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="CA13" s="12">
+      <c r="BW13" s="12">
         <f>Parameters!V3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -13549,91 +13519,91 @@
         <v>2.7</v>
       </c>
       <c r="K14">
+        <f t="shared" si="17"/>
+        <v>51.1</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="18"/>
+        <v>31.45</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>986.83236148000003</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>994.38897727000005</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="19"/>
+        <v>2.3026088434533333E-2</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="19"/>
+        <v>4.4747503977150001E-2</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="20"/>
+        <v>1.6447206024666667E-3</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="21"/>
+        <v>1.6573149621166669E-3</v>
+      </c>
+      <c r="S14">
         <f t="shared" si="2"/>
-        <v>51.1</v>
-      </c>
-      <c r="L14">
+        <v>561.88260997948237</v>
+      </c>
+      <c r="T14">
         <f t="shared" si="3"/>
-        <v>31.45</v>
-      </c>
-      <c r="M14">
-        <f>$BU$6*K14^2+$BV$6*K14+$BW$6</f>
-        <v>986.83236148000003</v>
-      </c>
-      <c r="N14">
-        <f>$BU$6*L14^2+$BV$6*L14+$BW$6</f>
-        <v>994.38897727000005</v>
-      </c>
-      <c r="O14">
+        <v>673.35596509775462</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="22"/>
+        <v>111.47335511827225</v>
+      </c>
+      <c r="V14">
         <f t="shared" si="4"/>
-        <v>2.3026088434533333E-2</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="4"/>
-        <v>4.4747503977150001E-2</v>
-      </c>
-      <c r="Q14">
+        <v>42.263121596335843</v>
+      </c>
+      <c r="W14">
         <f t="shared" si="5"/>
-        <v>1.6447206024666667E-3</v>
-      </c>
-      <c r="R14">
+        <v>20.800000000000004</v>
+      </c>
+      <c r="X14">
         <f t="shared" si="6"/>
-        <v>1.6573149621166669E-3</v>
-      </c>
-      <c r="S14">
-        <f>O14*$BV$15*(C14-E14)</f>
-        <v>561.88260997948237</v>
-      </c>
-      <c r="T14">
-        <f>P14*$BV$15*(F14-H14)</f>
-        <v>673.35596509775462</v>
-      </c>
-      <c r="U14">
+        <v>18.5</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="23"/>
+        <v>0.14142135623730953</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="24"/>
+        <v>19.627545206394245</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="25"/>
+        <v>0.48102862591869816</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="26"/>
+        <v>0.52011620471812037</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="27"/>
+        <v>0.10019075859215887</v>
+      </c>
+      <c r="AD14">
         <f t="shared" si="7"/>
-        <v>111.47335511827225</v>
-      </c>
-      <c r="V14">
-        <f>SQRT((O14*$BV$15)^2*Y14^2+((C14-E14)*($BV$15))^2*Q14^2)</f>
-        <v>42.263121596335843</v>
-      </c>
-      <c r="W14">
-        <f>(C14-F14)</f>
-        <v>20.800000000000004</v>
-      </c>
-      <c r="X14">
-        <f>(E14-H14)</f>
-        <v>18.5</v>
-      </c>
-      <c r="Y14">
+        <v>28.627248291672906</v>
+      </c>
+      <c r="AE14">
         <f t="shared" si="8"/>
-        <v>0.14142135623730953</v>
-      </c>
-      <c r="Z14">
-        <f t="shared" si="9"/>
-        <v>19.627545206394245</v>
-      </c>
-      <c r="AA14">
-        <f t="shared" si="10"/>
-        <v>0.48102862591869816</v>
-      </c>
-      <c r="AB14">
-        <f t="shared" si="11"/>
-        <v>0.52011620471812037</v>
-      </c>
-      <c r="AC14">
-        <f t="shared" si="12"/>
-        <v>0.10019075859215887</v>
-      </c>
-      <c r="AD14">
-        <f>S14/Z14</f>
-        <v>28.627248291672906</v>
-      </c>
-      <c r="AE14">
-        <f>T14/Z14</f>
         <v>34.306682675650606</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>2.1532836517284615</v>
       </c>
       <c r="AG14">
@@ -13645,7 +13615,7 @@
         <v>606.67534765720939</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>588.09817837477715</v>
       </c>
       <c r="AJ14">
@@ -13673,71 +13643,71 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AP14" s="1">
-        <f>$BU$7*K14^2+$BV$7*K14+$BW$7</f>
+        <f t="shared" si="9"/>
         <v>5.2106270699999986E-4</v>
       </c>
       <c r="AQ14" s="1">
-        <f>$BU$7*L14^2+$BV$7*L14+$BW$7</f>
+        <f t="shared" si="10"/>
         <v>7.5487638675E-4</v>
       </c>
       <c r="AR14" s="13">
-        <f>M14*AL14*AN14/AP14</f>
+        <f t="shared" si="11"/>
         <v>3516.5784704940543</v>
       </c>
       <c r="AS14" s="13">
-        <f>N14*AM14*AO14/AQ14</f>
+        <f t="shared" si="12"/>
         <v>1715.3407977525451</v>
       </c>
       <c r="AT14" s="1">
-        <f>$BU$9*K14^2+$BV$9*K14+$BW$9</f>
+        <f t="shared" si="13"/>
         <v>0.64517164759000001</v>
       </c>
       <c r="AU14" s="1">
-        <f>$BU$9*L14^2+$BV$9*L14+$BW$9</f>
+        <f t="shared" si="14"/>
         <v>0.62138273959750001</v>
       </c>
       <c r="AV14" s="15">
+        <f t="shared" si="30"/>
+        <v>3.2846484145498365</v>
+      </c>
+      <c r="AW14" s="15">
+        <f t="shared" si="30"/>
+        <v>4.9407266556855003</v>
+      </c>
+      <c r="AX14" s="15">
+        <f t="shared" si="31"/>
+        <v>0.8</v>
+      </c>
+      <c r="AY14" s="15">
+        <f t="shared" si="32"/>
+        <v>0.16</v>
+      </c>
+      <c r="AZ14" s="15">
         <f t="shared" si="15"/>
-        <v>3.2846484145498365</v>
-      </c>
-      <c r="AW14" s="15">
-        <f t="shared" si="15"/>
-        <v>4.9407266556855003</v>
-      </c>
-      <c r="AX14" s="15">
+        <v>0.68613631910101802</v>
+      </c>
+      <c r="BA14" s="15">
         <f t="shared" si="16"/>
-        <v>0.8</v>
-      </c>
-      <c r="AY14" s="15">
-        <f t="shared" si="17"/>
-        <v>0.16</v>
-      </c>
-      <c r="AZ14" s="15">
-        <f t="shared" si="0"/>
-        <v>0.68613631910101802</v>
-      </c>
-      <c r="BA14" s="15">
-        <f t="shared" si="1"/>
         <v>3.3900120012163319</v>
       </c>
       <c r="BB14" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>4.3212746908061102E-2</v>
       </c>
       <c r="BC14" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>20.971383471797527</v>
       </c>
       <c r="BD14" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>845.63387667133145</v>
       </c>
       <c r="BE14" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>67.800240024326641</v>
       </c>
       <c r="BF14" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>7.963658968114709</v>
       </c>
       <c r="BG14" s="15">
@@ -13745,7 +13715,7 @@
         <v>7.2637893280837487</v>
       </c>
       <c r="BH14" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>564.1991640679704</v>
       </c>
       <c r="BI14" s="15">
@@ -13756,12 +13726,12 @@
         <f>1/(BH14*Parameters!$B$26)</f>
         <v>3.1343333510568144E-2</v>
       </c>
-      <c r="BK14" s="25">
+      <c r="BK14" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
       <c r="BL14" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>17.819266429893755</v>
       </c>
       <c r="BM14" s="15">
@@ -13769,18 +13739,15 @@
         <v>333.64992171636021</v>
       </c>
       <c r="BN14" s="15"/>
-      <c r="BO14" s="15"/>
-      <c r="BP14" s="15"/>
-      <c r="BQ14" s="15"/>
-      <c r="BZ14" s="11" t="s">
+      <c r="BV14" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="CA14" s="1">
+      <c r="BW14" s="1">
         <f>$D$8*$G$11^2+$E$8*$G$11+$F$8</f>
         <v>49103.402000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -13812,91 +13779,91 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K15">
+        <f t="shared" si="17"/>
+        <v>40.15</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="18"/>
+        <v>30.450000000000003</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>991.36834423000005</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>994.70308006999994</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="19"/>
+        <v>2.3131928032033334E-2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="19"/>
+        <v>3.6472446269233329E-2</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="20"/>
+        <v>1.6522805737166667E-3</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="21"/>
+        <v>1.6578384667833334E-3</v>
+      </c>
+      <c r="S15">
         <f t="shared" si="2"/>
-        <v>40.15</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="3"/>
-        <v>30.450000000000003</v>
-      </c>
-      <c r="M15">
-        <f>$BU$6*K15^2+$BV$6*K15+$BW$6</f>
-        <v>991.36834423000005</v>
-      </c>
-      <c r="N15">
-        <f>$BU$6*L15^2+$BV$6*L15+$BW$6</f>
-        <v>994.70308006999994</v>
-      </c>
-      <c r="O15">
+        <v>216.37836800444276</v>
+      </c>
+      <c r="T15">
+        <f t="shared" ref="T15:T25" si="40">-P15*$BR$15*(F15-H15)</f>
+        <v>252.16684626085217</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="22"/>
+        <v>35.788478256409405</v>
+      </c>
+      <c r="V15">
         <f t="shared" si="4"/>
-        <v>2.3131928032033334E-2</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="4"/>
-        <v>3.6472446269233329E-2</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="5"/>
-        <v>1.6522805737166667E-3</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="6"/>
-        <v>1.6578384667833334E-3</v>
-      </c>
-      <c r="S15">
-        <f>O15*$BV$15*(C15-E15)</f>
-        <v>216.37836800444276</v>
-      </c>
-      <c r="T15">
-        <f>-P15*$BV$15*(F15-H15)</f>
-        <v>252.16684626085217</v>
-      </c>
-      <c r="U15">
+        <v>20.393312970465502</v>
+      </c>
+      <c r="W15" s="13">
+        <f t="shared" ref="W15:W25" si="41">(C15-H15)</f>
+        <v>9.9999999999999964</v>
+      </c>
+      <c r="X15" s="13">
+        <f t="shared" ref="X15:X25" si="42">(E15-F15)</f>
+        <v>9.3999999999999986</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="23"/>
+        <v>0.14142135623730953</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="24"/>
+        <v>9.6969064272078036</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="25"/>
+        <v>0.48984500234234329</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="26"/>
+        <v>0.510474085508967</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="27"/>
+        <v>0.10005317769026496</v>
+      </c>
+      <c r="AD15">
         <f t="shared" si="7"/>
-        <v>35.788478256409405</v>
-      </c>
-      <c r="V15">
-        <f>SQRT((O15*$BV$15)^2*Y15^2+((C15-E15)*($BV$15))^2*Q15^2)</f>
-        <v>20.393312970465502</v>
-      </c>
-      <c r="W15" s="13">
-        <f>(C15-H15)</f>
-        <v>9.9999999999999964</v>
-      </c>
-      <c r="X15" s="13">
-        <f>(E15-F15)</f>
-        <v>9.3999999999999986</v>
-      </c>
-      <c r="Y15">
+        <v>22.314164793559659</v>
+      </c>
+      <c r="AE15">
         <f t="shared" si="8"/>
-        <v>0.14142135623730953</v>
-      </c>
-      <c r="Z15">
-        <f t="shared" si="9"/>
-        <v>9.6969064272078036</v>
-      </c>
-      <c r="AA15">
-        <f t="shared" si="10"/>
-        <v>0.48984500234234329</v>
-      </c>
-      <c r="AB15">
-        <f t="shared" si="11"/>
-        <v>0.510474085508967</v>
-      </c>
-      <c r="AC15">
-        <f t="shared" si="12"/>
-        <v>0.10005317769026496</v>
-      </c>
-      <c r="AD15">
-        <f>S15/Z15</f>
-        <v>22.314164793559659</v>
-      </c>
-      <c r="AE15">
-        <f>T15/Z15</f>
         <v>26.00487569451187</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>2.1031860679453573</v>
       </c>
       <c r="AG15">
@@ -13908,7 +13875,7 @@
         <v>459.86716791909441</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>451.89668570093232</v>
       </c>
       <c r="AJ15">
@@ -13936,67 +13903,67 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AP15" s="1">
-        <f>$BU$7*K15^2+$BV$7*K15+$BW$7</f>
+        <f t="shared" si="9"/>
         <v>6.3547515074999998E-4</v>
       </c>
       <c r="AQ15" s="1">
-        <f>$BU$7*L15^2+$BV$7*L15+$BW$7</f>
+        <f t="shared" si="10"/>
         <v>7.7021765674999988E-4</v>
       </c>
       <c r="AR15" s="13">
-        <f>M15*AL15*AN15/AP15</f>
+        <f t="shared" si="11"/>
         <v>2896.6991747820784</v>
       </c>
       <c r="AS15" s="13">
-        <f>N15*AM15*AO15/AQ15</f>
+        <f t="shared" si="12"/>
         <v>1370.2785674886131</v>
       </c>
       <c r="AT15" s="1">
-        <f>$BU$9*K15^2+$BV$9*K15+$BW$9</f>
+        <f t="shared" si="13"/>
         <v>0.63265077427749994</v>
       </c>
       <c r="AU15" s="1">
-        <f>$BU$9*L15^2+$BV$9*L15+$BW$9</f>
+        <f t="shared" si="14"/>
         <v>0.6200126694975</v>
       </c>
       <c r="AV15" s="15">
+        <f t="shared" si="30"/>
+        <v>4.0851565242321497</v>
+      </c>
+      <c r="AW15" s="15">
+        <f t="shared" si="30"/>
+        <v>5.0522761293588054</v>
+      </c>
+      <c r="AX15" s="15">
+        <f t="shared" si="31"/>
+        <v>0.8</v>
+      </c>
+      <c r="AY15" s="15">
+        <f t="shared" si="32"/>
+        <v>0.16</v>
+      </c>
+      <c r="AZ15" s="15">
         <f t="shared" si="15"/>
-        <v>4.0851565242321497</v>
-      </c>
-      <c r="AW15" s="15">
-        <f t="shared" si="15"/>
-        <v>5.0522761293588054</v>
-      </c>
-      <c r="AX15" s="15">
+        <v>0.54811142699544524</v>
+      </c>
+      <c r="BA15" s="15">
         <f t="shared" si="16"/>
-        <v>0.8</v>
-      </c>
-      <c r="AY15" s="15">
-        <f t="shared" si="17"/>
-        <v>0.16</v>
-      </c>
-      <c r="AZ15" s="15">
-        <f t="shared" si="0"/>
-        <v>0.54811142699544524</v>
-      </c>
-      <c r="BA15" s="15">
-        <f t="shared" si="1"/>
         <v>2.7692102788378796</v>
       </c>
       <c r="BB15" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>4.610229403025768E-2</v>
       </c>
       <c r="BC15" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>17.863387193845163</v>
       </c>
       <c r="BD15" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>706.33035871280742</v>
       </c>
       <c r="BE15" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>55.384205576757594</v>
       </c>
       <c r="BF15" s="15">
@@ -14008,7 +13975,7 @@
         <v>5.7753176525507062</v>
       </c>
       <c r="BH15" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>447.59626436924981</v>
       </c>
       <c r="BI15" s="15">
@@ -14019,12 +13986,12 @@
         <f>1/(BH15*Parameters!$B$26)</f>
         <v>3.9508557093715202E-2</v>
       </c>
-      <c r="BK15" s="25">
+      <c r="BK15" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
       <c r="BL15" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>14.508716234063073</v>
       </c>
       <c r="BM15" s="15">
@@ -14032,17 +13999,14 @@
         <v>271.66281253750196</v>
       </c>
       <c r="BN15" s="15"/>
-      <c r="BO15" s="15"/>
-      <c r="BP15" s="15"/>
-      <c r="BQ15" s="15"/>
-      <c r="BU15" t="s">
+      <c r="BQ15" t="s">
         <v>85</v>
       </c>
-      <c r="BV15">
+      <c r="BR15">
         <v>4067</v>
       </c>
     </row>
-    <row r="16" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -14074,91 +14038,91 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K16">
+        <f t="shared" si="17"/>
+        <v>43.95</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="18"/>
+        <v>31</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>989.88691727000003</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>994.53116799999998</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="19"/>
+        <v>2.3097361402966664E-2</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="19"/>
+        <v>3.6466142826666673E-2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="20"/>
+        <v>1.6498115287833335E-3</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="21"/>
+        <v>1.6575519466666667E-3</v>
+      </c>
+      <c r="S16">
         <f t="shared" si="2"/>
-        <v>43.95</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="M16">
-        <f>$BU$6*K16^2+$BV$6*K16+$BW$6</f>
-        <v>989.88691727000003</v>
-      </c>
-      <c r="N16">
-        <f>$BU$6*L16^2+$BV$6*L16+$BW$6</f>
-        <v>994.53116799999998</v>
-      </c>
-      <c r="O16">
+        <v>328.77939089052899</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="40"/>
+        <v>355.9387269025284</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="22"/>
+        <v>27.159336011999414</v>
+      </c>
+      <c r="V16">
         <f t="shared" si="4"/>
-        <v>2.3097361402966664E-2</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="4"/>
-        <v>3.6466142826666673E-2</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="5"/>
-        <v>1.6498115287833335E-3</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="6"/>
-        <v>1.6575519466666667E-3</v>
-      </c>
-      <c r="S16">
-        <f>O16*$BV$15*(C16-E16)</f>
-        <v>328.77939089052899</v>
-      </c>
-      <c r="T16">
-        <f>-P16*$BV$15*(F16-H16)</f>
-        <v>355.9387269025284</v>
-      </c>
-      <c r="U16">
+        <v>26.981340112303691</v>
+      </c>
+      <c r="W16" s="13">
+        <f t="shared" si="41"/>
+        <v>13.5</v>
+      </c>
+      <c r="X16" s="13">
+        <f t="shared" si="42"/>
+        <v>12.400000000000002</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="23"/>
+        <v>0.14142135623730953</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="24"/>
+        <v>12.942209893350743</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="25"/>
+        <v>0.48613041324507089</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="26"/>
+        <v>0.514471718914711</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="27"/>
+        <v>0.10010034248142022</v>
+      </c>
+      <c r="AD16">
         <f t="shared" si="7"/>
-        <v>27.159336011999414</v>
-      </c>
-      <c r="V16">
-        <f>SQRT((O16*$BV$15)^2*Y16^2+((C16-E16)*($BV$15))^2*Q16^2)</f>
-        <v>26.981340112303691</v>
-      </c>
-      <c r="W16" s="13">
-        <f>(C16-H16)</f>
-        <v>13.5</v>
-      </c>
-      <c r="X16" s="13">
-        <f>(E16-F16)</f>
-        <v>12.400000000000002</v>
-      </c>
-      <c r="Y16">
+        <v>25.403651586538121</v>
+      </c>
+      <c r="AE16">
         <f t="shared" si="8"/>
-        <v>0.14142135623730953</v>
-      </c>
-      <c r="Z16">
-        <f t="shared" si="9"/>
-        <v>12.942209893350743</v>
-      </c>
-      <c r="AA16">
-        <f t="shared" si="10"/>
-        <v>0.48613041324507089</v>
-      </c>
-      <c r="AB16">
-        <f t="shared" si="11"/>
-        <v>0.514471718914711</v>
-      </c>
-      <c r="AC16">
-        <f t="shared" si="12"/>
-        <v>0.10010034248142022</v>
-      </c>
-      <c r="AD16">
-        <f>S16/Z16</f>
-        <v>25.403651586538121</v>
-      </c>
-      <c r="AE16">
-        <f>T16/Z16</f>
         <v>27.502159973884932</v>
       </c>
       <c r="AF16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>2.0848176122185507</v>
       </c>
       <c r="AG16">
@@ -14170,7 +14134,7 @@
         <v>486.3449672830954</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>495.8672788029109</v>
       </c>
       <c r="AJ16">
@@ -14198,71 +14162,71 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AP16" s="1">
-        <f>$BU$7*K16^2+$BV$7*K16+$BW$7</f>
+        <f t="shared" si="9"/>
         <v>5.9124113674999994E-4</v>
       </c>
       <c r="AQ16" s="1">
-        <f>$BU$7*L16^2+$BV$7*L16+$BW$7</f>
+        <f t="shared" si="10"/>
         <v>7.617387E-4</v>
       </c>
       <c r="AR16" s="13">
-        <f>M16*AL16*AN16/AP16</f>
+        <f t="shared" si="11"/>
         <v>3108.7647756286642</v>
       </c>
       <c r="AS16" s="13">
-        <f>N16*AM16*AO16/AQ16</f>
+        <f t="shared" si="12"/>
         <v>1385.2917581506297</v>
       </c>
       <c r="AT16" s="1">
-        <f>$BU$9*K16^2+$BV$9*K16+$BW$9</f>
+        <f t="shared" si="13"/>
         <v>0.63720569709749997</v>
       </c>
       <c r="AU16" s="1">
-        <f>$BU$9*L16^2+$BV$9*L16+$BW$9</f>
+        <f t="shared" si="14"/>
         <v>0.62076811899999995</v>
       </c>
       <c r="AV16" s="15">
+        <f t="shared" si="30"/>
+        <v>3.7736286949649185</v>
+      </c>
+      <c r="AW16" s="15">
+        <f t="shared" si="30"/>
+        <v>4.9905773155531534</v>
+      </c>
+      <c r="AX16" s="15">
+        <f t="shared" si="31"/>
+        <v>0.8</v>
+      </c>
+      <c r="AY16" s="15">
+        <f t="shared" si="32"/>
+        <v>0.16</v>
+      </c>
+      <c r="AZ16" s="15">
         <f t="shared" si="15"/>
-        <v>3.7736286949649185</v>
-      </c>
-      <c r="AW16" s="15">
-        <f t="shared" si="15"/>
-        <v>4.9905773155531534</v>
-      </c>
-      <c r="AX16" s="15">
+        <v>0.55411670326025186</v>
+      </c>
+      <c r="BA16" s="15">
         <f t="shared" si="16"/>
-        <v>0.8</v>
-      </c>
-      <c r="AY16" s="15">
-        <f t="shared" si="17"/>
-        <v>0.16</v>
-      </c>
-      <c r="AZ16" s="15">
-        <f t="shared" si="0"/>
-        <v>0.55411670326025186</v>
-      </c>
-      <c r="BA16" s="15">
-        <f t="shared" si="1"/>
         <v>2.7653622494597112</v>
       </c>
       <c r="BB16" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>4.5016813528021844E-2</v>
       </c>
       <c r="BC16" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>19.002454613526456</v>
       </c>
       <c r="BD16" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>756.77952116098311</v>
       </c>
       <c r="BE16" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>55.307244989194224</v>
       </c>
       <c r="BF16" s="15">
-        <f t="shared" ref="BF16:BF25" si="25">3.657+((0.19*(BE16)^(0.8))/(1+0.117*(BE16)^0.467))</f>
+        <f t="shared" ref="BF16:BF25" si="43">3.657+((0.19*(BE16)^(0.8))/(1+0.117*(BE16)^0.467))</f>
         <v>6.329549152286039</v>
       </c>
       <c r="BG16" s="15">
@@ -14270,7 +14234,7 @@
         <v>5.773289861863736</v>
       </c>
       <c r="BH16" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>447.98428599886512</v>
       </c>
       <c r="BI16" s="15">
@@ -14281,12 +14245,12 @@
         <f>1/(BH16*Parameters!$B$26)</f>
         <v>3.9474336753434584E-2</v>
       </c>
-      <c r="BK16" s="25">
+      <c r="BK16" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
       <c r="BL16" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>14.922644980298525</v>
       </c>
       <c r="BM16" s="15">
@@ -14294,11 +14258,8 @@
         <v>279.41326030823171</v>
       </c>
       <c r="BN16" s="15"/>
-      <c r="BO16" s="15"/>
-      <c r="BP16" s="15"/>
-      <c r="BQ16" s="15"/>
     </row>
-    <row r="17" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -14330,91 +14291,91 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K17">
+        <f t="shared" si="17"/>
+        <v>46.900000000000006</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="18"/>
+        <v>31.299999999999997</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>988.66892068000004</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>994.43652771999996</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="19"/>
+        <v>2.3068941482533335E-2</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="19"/>
+        <v>3.6462672683066674E-2</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="20"/>
+        <v>1.647781534466667E-3</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="21"/>
+        <v>1.6573942128666668E-3</v>
+      </c>
+      <c r="S17">
         <f t="shared" si="2"/>
-        <v>46.900000000000006</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="3"/>
-        <v>31.299999999999997</v>
-      </c>
-      <c r="M17">
-        <f>$BU$6*K17^2+$BV$6*K17+$BW$6</f>
-        <v>988.66892068000004</v>
-      </c>
-      <c r="N17">
-        <f>$BU$6*L17^2+$BV$6*L17+$BW$6</f>
-        <v>994.43652771999996</v>
-      </c>
-      <c r="O17">
+        <v>412.81409404163736</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="40"/>
+        <v>444.88106940609595</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="22"/>
+        <v>32.066975364458585</v>
+      </c>
+      <c r="V17">
         <f t="shared" si="4"/>
-        <v>2.3068941482533335E-2</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="4"/>
-        <v>3.6462672683066674E-2</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="5"/>
-        <v>1.647781534466667E-3</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="6"/>
-        <v>1.6573942128666668E-3</v>
-      </c>
-      <c r="S17">
-        <f>O17*$BV$15*(C17-E17)</f>
-        <v>412.81409404163736</v>
-      </c>
-      <c r="T17">
-        <f>-P17*$BV$15*(F17-H17)</f>
-        <v>444.88106940609595</v>
-      </c>
-      <c r="U17">
+        <v>32.334436151093037</v>
+      </c>
+      <c r="W17" s="13">
+        <f t="shared" si="41"/>
+        <v>16.300000000000004</v>
+      </c>
+      <c r="X17" s="13">
+        <f t="shared" si="42"/>
+        <v>14.900000000000002</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="23"/>
+        <v>0.14142135623730953</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="24"/>
+        <v>15.58952428691671</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="25"/>
+        <v>0.4853627688157906</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="26"/>
+        <v>0.51530947350464618</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="27"/>
+        <v>0.10011202433635696</v>
+      </c>
+      <c r="AD17">
         <f t="shared" si="7"/>
-        <v>32.066975364458585</v>
-      </c>
-      <c r="V17">
-        <f>SQRT((O17*$BV$15)^2*Y17^2+((C17-E17)*($BV$15))^2*Q17^2)</f>
-        <v>32.334436151093037</v>
-      </c>
-      <c r="W17" s="13">
-        <f>(C17-H17)</f>
-        <v>16.300000000000004</v>
-      </c>
-      <c r="X17" s="13">
-        <f>(E17-F17)</f>
-        <v>14.900000000000002</v>
-      </c>
-      <c r="Y17">
+        <v>26.480223927556647</v>
+      </c>
+      <c r="AE17">
         <f t="shared" si="8"/>
-        <v>0.14142135623730953</v>
-      </c>
-      <c r="Z17">
-        <f t="shared" si="9"/>
-        <v>15.58952428691671</v>
-      </c>
-      <c r="AA17">
-        <f t="shared" si="10"/>
-        <v>0.4853627688157906</v>
-      </c>
-      <c r="AB17">
-        <f t="shared" si="11"/>
-        <v>0.51530947350464618</v>
-      </c>
-      <c r="AC17">
-        <f t="shared" si="12"/>
-        <v>0.10011202433635696</v>
-      </c>
-      <c r="AD17">
-        <f>S17/Z17</f>
-        <v>26.480223927556647</v>
-      </c>
-      <c r="AE17">
-        <f>T17/Z17</f>
         <v>28.537180559092246</v>
       </c>
       <c r="AF17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>2.0741558412508421</v>
       </c>
       <c r="AG17">
@@ -14426,7 +14387,7 @@
         <v>504.6481497650521</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>515.7277331482087</v>
       </c>
       <c r="AJ17">
@@ -14454,71 +14415,71 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AP17" s="1">
-        <f>$BU$7*K17^2+$BV$7*K17+$BW$7</f>
+        <f t="shared" si="9"/>
         <v>5.602209869999999E-4</v>
       </c>
       <c r="AQ17" s="1">
-        <f>$BU$7*L17^2+$BV$7*L17+$BW$7</f>
+        <f t="shared" si="10"/>
         <v>7.5715632299999994E-4</v>
       </c>
       <c r="AR17" s="13">
-        <f>M17*AL17*AN17/AP17</f>
+        <f t="shared" si="11"/>
         <v>3276.8640893873339</v>
       </c>
       <c r="AS17" s="13">
-        <f>N17*AM17*AO17/AQ17</f>
+        <f t="shared" si="12"/>
         <v>1393.543043182807</v>
       </c>
       <c r="AT17" s="1">
-        <f>$BU$9*K17^2+$BV$9*K17+$BW$9</f>
+        <f t="shared" si="13"/>
         <v>0.64058801118999997</v>
       </c>
       <c r="AU17" s="1">
-        <f>$BU$9*L17^2+$BV$9*L17+$BW$9</f>
+        <f t="shared" si="14"/>
         <v>0.62117821350999991</v>
       </c>
       <c r="AV17" s="15">
+        <f t="shared" si="30"/>
+        <v>3.5567614665414258</v>
+      </c>
+      <c r="AW17" s="15">
+        <f t="shared" si="30"/>
+        <v>4.9572806944418497</v>
+      </c>
+      <c r="AX17" s="15">
+        <f t="shared" si="31"/>
+        <v>0.8</v>
+      </c>
+      <c r="AY17" s="15">
+        <f t="shared" si="32"/>
+        <v>0.16</v>
+      </c>
+      <c r="AZ17" s="15">
         <f t="shared" si="15"/>
-        <v>3.5567614665414258</v>
-      </c>
-      <c r="AW17" s="15">
-        <f t="shared" si="15"/>
-        <v>4.9572806944418497</v>
-      </c>
-      <c r="AX17" s="15">
+        <v>0.55741721727312277</v>
+      </c>
+      <c r="BA17" s="15">
         <f t="shared" si="16"/>
-        <v>0.8</v>
-      </c>
-      <c r="AY17" s="15">
-        <f t="shared" si="17"/>
-        <v>0.16</v>
-      </c>
-      <c r="AZ17" s="15">
-        <f t="shared" si="0"/>
-        <v>0.55741721727312277</v>
-      </c>
-      <c r="BA17" s="15">
-        <f t="shared" si="1"/>
         <v>2.7632736099375497</v>
       </c>
       <c r="BB17" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>4.4232497568927956E-2</v>
       </c>
       <c r="BC17" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>19.847025122540934</v>
       </c>
       <c r="BD17" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>794.61039695540387</v>
       </c>
       <c r="BE17" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>55.265472198750992</v>
       </c>
       <c r="BF17" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="43"/>
         <v>6.3283418202446331</v>
       </c>
       <c r="BG17" s="15">
@@ -14526,7 +14487,7 @@
         <v>5.7721886336930002</v>
       </c>
       <c r="BH17" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>448.19472794001814</v>
       </c>
       <c r="BI17" s="15">
@@ -14537,12 +14498,12 @@
         <f>1/(BH17*Parameters!$B$26)</f>
         <v>3.9455802273811624E-2</v>
       </c>
-      <c r="BK17" s="25">
+      <c r="BK17" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
       <c r="BL17" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>15.210941340639577</v>
       </c>
       <c r="BM17" s="15">
@@ -14550,11 +14511,8 @@
         <v>284.81135334631182</v>
       </c>
       <c r="BN17" s="15"/>
-      <c r="BO17" s="15"/>
-      <c r="BP17" s="15"/>
-      <c r="BQ17" s="15"/>
     </row>
-    <row r="18" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -14586,91 +14544,91 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K18">
+        <f t="shared" si="17"/>
+        <v>51</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="18"/>
+        <v>31.8</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>986.87748799999997</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>994.27742911999997</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="19"/>
+        <v>2.1382345573333336E-2</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="19"/>
+        <v>3.6456839067733338E-2</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="20"/>
+        <v>1.6447958133333335E-3</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="21"/>
+        <v>1.6571290485333334E-3</v>
+      </c>
+      <c r="S18">
         <f t="shared" si="2"/>
-        <v>51</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="3"/>
-        <v>31.8</v>
-      </c>
-      <c r="M18">
-        <f>$BU$6*K18^2+$BV$6*K18+$BW$6</f>
-        <v>986.87748799999997</v>
-      </c>
-      <c r="N18">
-        <f>$BU$6*L18^2+$BV$6*L18+$BW$6</f>
-        <v>994.27742911999997</v>
-      </c>
-      <c r="O18">
+        <v>504.37959679113044</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="40"/>
+        <v>563.42586505619227</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="22"/>
+        <v>59.046268265061826</v>
+      </c>
+      <c r="V18">
         <f t="shared" si="4"/>
-        <v>2.1382345573333336E-2</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="4"/>
-        <v>3.6456839067733338E-2</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="5"/>
-        <v>1.6447958133333335E-3</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="6"/>
-        <v>1.6571290485333334E-3</v>
-      </c>
-      <c r="S18">
-        <f>O18*$BV$15*(C18-E18)</f>
-        <v>504.37959679113044</v>
-      </c>
-      <c r="T18">
-        <f>-P18*$BV$15*(F18-H18)</f>
-        <v>563.42586505619227</v>
-      </c>
-      <c r="U18">
+        <v>40.700933625122218</v>
+      </c>
+      <c r="W18" s="13">
+        <f t="shared" si="41"/>
+        <v>20.199999999999996</v>
+      </c>
+      <c r="X18" s="13">
+        <f t="shared" si="42"/>
+        <v>18.200000000000003</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="23"/>
+        <v>0.14142135623730953</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="24"/>
+        <v>19.182626312338382</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="25"/>
+        <v>0.48306681362421228</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="26"/>
+        <v>0.51783937786423262</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="27"/>
+        <v>0.10015100276001884</v>
+      </c>
+      <c r="AD18">
         <f t="shared" si="7"/>
-        <v>59.046268265061826</v>
-      </c>
-      <c r="V18">
-        <f>SQRT((O18*$BV$15)^2*Y18^2+((C18-E18)*($BV$15))^2*Q18^2)</f>
-        <v>40.700933625122218</v>
-      </c>
-      <c r="W18" s="13">
-        <f>(C18-H18)</f>
-        <v>20.199999999999996</v>
-      </c>
-      <c r="X18" s="13">
-        <f>(E18-F18)</f>
-        <v>18.200000000000003</v>
-      </c>
-      <c r="Y18">
+        <v>26.293563174230759</v>
+      </c>
+      <c r="AE18">
         <f t="shared" si="8"/>
-        <v>0.14142135623730953</v>
-      </c>
-      <c r="Z18">
-        <f t="shared" si="9"/>
-        <v>19.182626312338382</v>
-      </c>
-      <c r="AA18">
-        <f t="shared" si="10"/>
-        <v>0.48306681362421228</v>
-      </c>
-      <c r="AB18">
-        <f t="shared" si="11"/>
-        <v>0.51783937786423262</v>
-      </c>
-      <c r="AC18">
-        <f t="shared" si="12"/>
-        <v>0.10015100276001884</v>
-      </c>
-      <c r="AD18">
-        <f>S18/Z18</f>
-        <v>26.293563174230759</v>
-      </c>
-      <c r="AE18">
-        <f>T18/Z18</f>
         <v>29.371674966831488</v>
       </c>
       <c r="AF18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>2.1217891477563144</v>
       </c>
       <c r="AG18">
@@ -14682,7 +14640,7 @@
         <v>519.4052508733015</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>521.24953485401647</v>
       </c>
       <c r="AJ18">
@@ -14710,71 +14668,71 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AP18" s="1">
-        <f>$BU$7*K18^2+$BV$7*K18+$BW$7</f>
+        <f t="shared" si="9"/>
         <v>5.2192669999999984E-4</v>
       </c>
       <c r="AQ18" s="1">
-        <f>$BU$7*L18^2+$BV$7*L18+$BW$7</f>
+        <f t="shared" si="10"/>
         <v>7.4958570799999998E-4</v>
       </c>
       <c r="AR18" s="13">
-        <f>M18*AL18*AN18/AP18</f>
+        <f t="shared" si="11"/>
         <v>3260.1378631282018</v>
       </c>
       <c r="AS18" s="13">
-        <f>N18*AM18*AO18/AQ18</f>
+        <f t="shared" si="12"/>
         <v>1407.3922520158264</v>
       </c>
       <c r="AT18" s="1">
-        <f>$BU$9*K18^2+$BV$9*K18+$BW$9</f>
+        <f t="shared" si="13"/>
         <v>0.645065679</v>
       </c>
       <c r="AU18" s="1">
-        <f>$BU$9*L18^2+$BV$9*L18+$BW$9</f>
+        <f t="shared" si="14"/>
         <v>0.62185861595999992</v>
       </c>
       <c r="AV18" s="15">
+        <f t="shared" si="30"/>
+        <v>3.2906352918831998</v>
+      </c>
+      <c r="AW18" s="15">
+        <f t="shared" si="30"/>
+        <v>4.9023443531931283</v>
+      </c>
+      <c r="AX18" s="15">
+        <f t="shared" si="31"/>
+        <v>0.8</v>
+      </c>
+      <c r="AY18" s="15">
+        <f t="shared" si="32"/>
+        <v>0.16</v>
+      </c>
+      <c r="AZ18" s="15">
         <f t="shared" si="15"/>
-        <v>3.2906352918831998</v>
-      </c>
-      <c r="AW18" s="15">
-        <f t="shared" si="15"/>
-        <v>4.9023443531931283</v>
-      </c>
-      <c r="AX18" s="15">
+        <v>0.56295690080633065</v>
+      </c>
+      <c r="BA18" s="15">
         <f t="shared" si="16"/>
-        <v>0.8</v>
-      </c>
-      <c r="AY18" s="15">
-        <f t="shared" si="17"/>
-        <v>0.16</v>
-      </c>
-      <c r="AZ18" s="15">
-        <f t="shared" si="0"/>
-        <v>0.56295690080633065</v>
-      </c>
-      <c r="BA18" s="15">
-        <f t="shared" si="1"/>
         <v>2.7598085837590189</v>
       </c>
       <c r="BB18" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>4.4307811226869477E-2</v>
       </c>
       <c r="BC18" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>19.195823564727679</v>
       </c>
       <c r="BD18" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>773.91043510907878</v>
       </c>
       <c r="BE18" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>55.196171675180381</v>
       </c>
       <c r="BF18" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="43"/>
         <v>6.3263378822856184</v>
       </c>
       <c r="BG18" s="15">
@@ -14782,7 +14740,7 @@
         <v>5.7703608076623887</v>
       </c>
       <c r="BH18" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>448.54357318034505</v>
       </c>
       <c r="BI18" s="15">
@@ -14793,12 +14751,12 @@
         <f>1/(BH18*Parameters!$B$26)</f>
         <v>3.9425116361339607E-2</v>
       </c>
-      <c r="BK18" s="25">
+      <c r="BK18" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
       <c r="BL18" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>15.064523118209873</v>
       </c>
       <c r="BM18" s="15">
@@ -14806,11 +14764,8 @@
         <v>282.06980230414524</v>
       </c>
       <c r="BN18" s="15"/>
-      <c r="BO18" s="15"/>
-      <c r="BP18" s="15"/>
-      <c r="BQ18" s="15"/>
     </row>
-    <row r="19" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -14842,91 +14797,91 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K19">
+        <f t="shared" si="17"/>
+        <v>51.1</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="18"/>
+        <v>31.65</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>986.83236148000003</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>994.32533782999997</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="19"/>
+        <v>1.9736647229599998E-2</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="19"/>
+        <v>3.6458595720433334E-2</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="20"/>
+        <v>1.6447206024666667E-3</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="21"/>
+        <v>1.6572088963833333E-3</v>
+      </c>
+      <c r="S19">
         <f t="shared" si="2"/>
-        <v>51.1</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="3"/>
-        <v>31.65</v>
-      </c>
-      <c r="M19">
-        <f>$BU$6*K19^2+$BV$6*K19+$BW$6</f>
-        <v>986.83236148000003</v>
-      </c>
-      <c r="N19">
-        <f>$BU$6*L19^2+$BV$6*L19+$BW$6</f>
-        <v>994.32533782999997</v>
-      </c>
-      <c r="O19">
+        <v>465.55987684014229</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="40"/>
+        <v>518.96988078250831</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="22"/>
+        <v>53.410003942366018</v>
+      </c>
+      <c r="V19">
         <f t="shared" si="4"/>
-        <v>1.9736647229599998E-2</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="4"/>
-        <v>3.6458595720433334E-2</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="5"/>
-        <v>1.6447206024666667E-3</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="6"/>
-        <v>1.6572088963833333E-3</v>
-      </c>
-      <c r="S19">
-        <f>O19*$BV$15*(C19-E19)</f>
-        <v>465.55987684014229</v>
-      </c>
-      <c r="T19">
-        <f>-P19*$BV$15*(F19-H19)</f>
-        <v>518.96988078250831</v>
-      </c>
-      <c r="U19">
+        <v>40.423292993083535</v>
+      </c>
+      <c r="W19" s="13">
+        <f t="shared" si="41"/>
+        <v>20.6</v>
+      </c>
+      <c r="X19" s="13">
+        <f t="shared" si="42"/>
+        <v>18.300000000000004</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="23"/>
+        <v>0.14142135623730953</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="24"/>
+        <v>19.427313879297962</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="25"/>
+        <v>0.48083877899481919</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="26"/>
+        <v>0.52032978316964429</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="27"/>
+        <v>0.10019471190023931</v>
+      </c>
+      <c r="AD19">
         <f t="shared" si="7"/>
-        <v>53.410003942366018</v>
-      </c>
-      <c r="V19">
-        <f>SQRT((O19*$BV$15)^2*Y19^2+((C19-E19)*($BV$15))^2*Q19^2)</f>
-        <v>40.423292993083535</v>
-      </c>
-      <c r="W19" s="13">
-        <f>(C19-H19)</f>
-        <v>20.6</v>
-      </c>
-      <c r="X19" s="13">
-        <f>(E19-F19)</f>
-        <v>18.300000000000004</v>
-      </c>
-      <c r="Y19">
+        <v>23.964191845186065</v>
+      </c>
+      <c r="AE19">
         <f t="shared" si="8"/>
-        <v>0.14142135623730953</v>
-      </c>
-      <c r="Z19">
-        <f t="shared" si="9"/>
-        <v>19.427313879297962</v>
-      </c>
-      <c r="AA19">
-        <f t="shared" si="10"/>
-        <v>0.48083877899481919</v>
-      </c>
-      <c r="AB19">
-        <f t="shared" si="11"/>
-        <v>0.52032978316964429</v>
-      </c>
-      <c r="AC19">
-        <f t="shared" si="12"/>
-        <v>0.10019471190023931</v>
-      </c>
-      <c r="AD19">
-        <f>S19/Z19</f>
-        <v>23.964191845186065</v>
-      </c>
-      <c r="AE19">
-        <f>T19/Z19</f>
         <v>26.713414114111288</v>
       </c>
       <c r="AF19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>2.0807730213623468</v>
       </c>
       <c r="AG19">
@@ -14938,7 +14893,7 @@
         <v>472.39687812462404</v>
       </c>
       <c r="AI19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>474.57466339755263</v>
       </c>
       <c r="AJ19">
@@ -14966,71 +14921,71 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AP19" s="1">
-        <f>$BU$7*K19^2+$BV$7*K19+$BW$7</f>
+        <f t="shared" si="9"/>
         <v>5.2106270699999986E-4</v>
       </c>
       <c r="AQ19" s="1">
-        <f>$BU$7*L19^2+$BV$7*L19+$BW$7</f>
+        <f t="shared" si="10"/>
         <v>7.5184814075000004E-4</v>
       </c>
       <c r="AR19" s="13">
-        <f>M19*AL19*AN19/AP19</f>
+        <f t="shared" si="11"/>
         <v>3014.2101175663324</v>
       </c>
       <c r="AS19" s="13">
-        <f>N19*AM19*AO19/AQ19</f>
+        <f t="shared" si="12"/>
         <v>1403.2247912838757</v>
       </c>
       <c r="AT19" s="1">
-        <f>$BU$9*K19^2+$BV$9*K19+$BW$9</f>
+        <f t="shared" si="13"/>
         <v>0.64517164759000001</v>
       </c>
       <c r="AU19" s="1">
-        <f>$BU$9*L19^2+$BV$9*L19+$BW$9</f>
+        <f t="shared" si="14"/>
         <v>0.62165490057749995</v>
       </c>
       <c r="AV19" s="15">
+        <f t="shared" si="30"/>
+        <v>3.2846484145498365</v>
+      </c>
+      <c r="AW19" s="15">
+        <f t="shared" si="30"/>
+        <v>4.9187521655337569</v>
+      </c>
+      <c r="AX19" s="15">
+        <f t="shared" si="31"/>
+        <v>0.8</v>
+      </c>
+      <c r="AY19" s="15">
+        <f t="shared" si="32"/>
+        <v>0.16</v>
+      </c>
+      <c r="AZ19" s="15">
         <f t="shared" si="15"/>
-        <v>3.2846484145498365</v>
-      </c>
-      <c r="AW19" s="15">
-        <f t="shared" si="15"/>
-        <v>4.9187521655337569</v>
-      </c>
-      <c r="AX19" s="15">
+        <v>0.56128991651355031</v>
+      </c>
+      <c r="BA19" s="15">
         <f t="shared" si="16"/>
-        <v>0.8</v>
-      </c>
-      <c r="AY19" s="15">
-        <f t="shared" si="17"/>
-        <v>0.16</v>
-      </c>
-      <c r="AZ19" s="15">
-        <f t="shared" si="0"/>
-        <v>0.56128991651355031</v>
-      </c>
-      <c r="BA19" s="15">
-        <f t="shared" si="1"/>
         <v>2.7608459923432873</v>
       </c>
       <c r="BB19" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>4.5486585483990323E-2</v>
       </c>
       <c r="BC19" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>17.428172279447747</v>
       </c>
       <c r="BD19" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>702.76016400085427</v>
       </c>
       <c r="BE19" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>55.216919846865743</v>
       </c>
       <c r="BF19" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="43"/>
         <v>6.3269379792013076</v>
       </c>
       <c r="BG19" s="15">
@@ -15038,7 +14993,7 @@
         <v>5.7709081663061292</v>
       </c>
       <c r="BH19" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>448.43916779586488</v>
       </c>
       <c r="BI19" s="15">
@@ -15049,12 +15004,12 @@
         <f>1/(BH19*Parameters!$B$26)</f>
         <v>3.943429529736367E-2</v>
       </c>
-      <c r="BK19" s="25">
+      <c r="BK19" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
       <c r="BL19" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>14.494242310605921</v>
       </c>
       <c r="BM19" s="15">
@@ -15062,19 +15017,16 @@
         <v>271.39180118877965</v>
       </c>
       <c r="BN19" s="15"/>
-      <c r="BO19" s="15"/>
-      <c r="BP19" s="15"/>
-      <c r="BQ19" s="15"/>
-      <c r="BT19" s="23" t="s">
+      <c r="BP19" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="BU19" s="23"/>
-      <c r="BX19" s="23" t="s">
+      <c r="BQ19" s="25"/>
+      <c r="BT19" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="BY19" s="23"/>
+      <c r="BU19" s="25"/>
     </row>
-    <row r="20" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -15106,91 +15058,91 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K20">
+        <f t="shared" si="17"/>
+        <v>51.25</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="18"/>
+        <v>31.75</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>986.76454375000003</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>994.29341575000001</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="19"/>
+        <v>2.137989844791667E-2</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="19"/>
+        <v>3.6457425244166668E-2</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="20"/>
+        <v>1.6446075729166668E-3</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="21"/>
+        <v>1.6571556929166668E-3</v>
+      </c>
+      <c r="S20">
         <f t="shared" si="2"/>
-        <v>51.25</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="3"/>
-        <v>31.75</v>
-      </c>
-      <c r="M20">
-        <f>$BU$6*K20^2+$BV$6*K20+$BW$6</f>
-        <v>986.76454375000003</v>
-      </c>
-      <c r="N20">
-        <f>$BU$6*L20^2+$BV$6*L20+$BW$6</f>
-        <v>994.29341575000001</v>
-      </c>
-      <c r="O20">
+        <v>495.6266678297597</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="40"/>
+        <v>548.60768933169595</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="22"/>
+        <v>52.981021501936254</v>
+      </c>
+      <c r="V20">
         <f t="shared" si="4"/>
-        <v>2.137989844791667E-2</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="4"/>
-        <v>3.6457425244166668E-2</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="5"/>
-        <v>1.6446075729166668E-3</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="6"/>
-        <v>1.6571556929166668E-3</v>
-      </c>
-      <c r="S20">
-        <f>O20*$BV$15*(C20-E20)</f>
-        <v>495.6266678297597</v>
-      </c>
-      <c r="T20">
-        <f>-P20*$BV$15*(F20-H20)</f>
-        <v>548.60768933169595</v>
-      </c>
-      <c r="U20">
+        <v>40.059188421464775</v>
+      </c>
+      <c r="W20" s="13">
+        <f t="shared" si="41"/>
+        <v>20.5</v>
+      </c>
+      <c r="X20" s="13">
+        <f t="shared" si="42"/>
+        <v>18.5</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="23"/>
+        <v>0.14142135623730953</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="24"/>
+        <v>19.482893978449251</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="25"/>
+        <v>0.48332118982232725</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="26"/>
+        <v>0.51755727497791915</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="27"/>
+        <v>0.10014638340088369</v>
+      </c>
+      <c r="AD20">
         <f t="shared" si="7"/>
-        <v>52.981021501936254</v>
-      </c>
-      <c r="V20">
-        <f>SQRT((O20*$BV$15)^2*Y20^2+((C20-E20)*($BV$15))^2*Q20^2)</f>
-        <v>40.059188421464775</v>
-      </c>
-      <c r="W20" s="13">
-        <f>(C20-H20)</f>
-        <v>20.5</v>
-      </c>
-      <c r="X20" s="13">
-        <f>(E20-F20)</f>
-        <v>18.5</v>
-      </c>
-      <c r="Y20">
+        <v>25.439068157840957</v>
+      </c>
+      <c r="AE20">
         <f t="shared" si="8"/>
-        <v>0.14142135623730953</v>
-      </c>
-      <c r="Z20">
-        <f t="shared" si="9"/>
-        <v>19.482893978449251</v>
-      </c>
-      <c r="AA20">
-        <f t="shared" si="10"/>
-        <v>0.48332118982232725</v>
-      </c>
-      <c r="AB20">
-        <f t="shared" si="11"/>
-        <v>0.51755727497791915</v>
-      </c>
-      <c r="AC20">
-        <f t="shared" si="12"/>
-        <v>0.10014638340088369</v>
-      </c>
-      <c r="AD20">
-        <f>S20/Z20</f>
-        <v>25.439068157840957</v>
-      </c>
-      <c r="AE20">
-        <f>T20/Z20</f>
         <v>28.158429129601135</v>
       </c>
       <c r="AF20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>2.0561482129750051</v>
       </c>
       <c r="AG20">
@@ -15202,7 +15154,7 @@
         <v>497.95035396431524</v>
       </c>
       <c r="AI20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>502.02226729290913</v>
       </c>
       <c r="AJ20">
@@ -15230,71 +15182,71 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AP20" s="1">
-        <f>$BU$7*K20^2+$BV$7*K20+$BW$7</f>
+        <f t="shared" si="9"/>
         <v>5.1977296874999987E-4</v>
       </c>
       <c r="AQ20" s="1">
-        <f>$BU$7*L20^2+$BV$7*L20+$BW$7</f>
+        <f t="shared" si="10"/>
         <v>7.5033901874999997E-4</v>
       </c>
       <c r="AR20" s="13">
-        <f>M20*AL20*AN20/AP20</f>
+        <f t="shared" si="11"/>
         <v>3273.2719142473488</v>
       </c>
       <c r="AS20" s="13">
-        <f>N20*AM20*AO20/AQ20</f>
+        <f t="shared" si="12"/>
         <v>1406.0018919977699</v>
       </c>
       <c r="AT20" s="1">
-        <f>$BU$9*K20^2+$BV$9*K20+$BW$9</f>
+        <f t="shared" si="13"/>
         <v>0.64533031093749993</v>
       </c>
       <c r="AU20" s="1">
-        <f>$BU$9*L20^2+$BV$9*L20+$BW$9</f>
+        <f t="shared" si="14"/>
         <v>0.62179074943750001</v>
       </c>
       <c r="AV20" s="15">
+        <f t="shared" si="30"/>
+        <v>3.2757126514563826</v>
+      </c>
+      <c r="AW20" s="15">
+        <f t="shared" si="30"/>
+        <v>4.9078066729311924</v>
+      </c>
+      <c r="AX20" s="15">
+        <f t="shared" si="31"/>
+        <v>0.8</v>
+      </c>
+      <c r="AY20" s="15">
+        <f t="shared" si="32"/>
+        <v>0.16</v>
+      </c>
+      <c r="AZ20" s="15">
         <f t="shared" si="15"/>
-        <v>3.2757126514563826</v>
-      </c>
-      <c r="AW20" s="15">
-        <f t="shared" si="15"/>
-        <v>4.9078066729311924</v>
-      </c>
-      <c r="AX20" s="15">
+        <v>0.56240075679910795</v>
+      </c>
+      <c r="BA20" s="15">
         <f t="shared" si="16"/>
-        <v>0.8</v>
-      </c>
-      <c r="AY20" s="15">
-        <f t="shared" si="17"/>
-        <v>0.16</v>
-      </c>
-      <c r="AZ20" s="15">
-        <f t="shared" si="0"/>
-        <v>0.56240075679910795</v>
-      </c>
-      <c r="BA20" s="15">
-        <f t="shared" si="1"/>
         <v>2.7601541870802149</v>
       </c>
       <c r="BB20" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>4.4248623516148097E-2</v>
       </c>
       <c r="BC20" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>19.257751230696357</v>
       </c>
       <c r="BD20" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>776.72566185389394</v>
       </c>
       <c r="BE20" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>55.203083741604296</v>
       </c>
       <c r="BF20" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="43"/>
         <v>6.3265378114756716</v>
       </c>
       <c r="BG20" s="15">
@@ -15302,7 +15254,7 @@
         <v>5.7705431664905227</v>
       </c>
       <c r="BH20" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>448.50879501919832</v>
       </c>
       <c r="BI20" s="15">
@@ -15313,12 +15265,12 @@
         <f>1/(BH20*Parameters!$B$26)</f>
         <v>3.942817345423337E-2</v>
       </c>
-      <c r="BK20" s="25">
+      <c r="BK20" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
       <c r="BL20" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>15.085001570408972</v>
       </c>
       <c r="BM20" s="15">
@@ -15326,23 +15278,20 @@
         <v>282.4532431152461</v>
       </c>
       <c r="BN20" s="15"/>
-      <c r="BO20" s="15"/>
-      <c r="BP20" s="15"/>
-      <c r="BQ20" s="15"/>
+      <c r="BP20" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>93</v>
+      </c>
       <c r="BT20" t="s">
         <v>92</v>
       </c>
       <c r="BU20" t="s">
-        <v>93</v>
-      </c>
-      <c r="BX20" t="s">
-        <v>92</v>
-      </c>
-      <c r="BY20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -15374,91 +15323,91 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K21">
+        <f t="shared" si="17"/>
+        <v>51.4</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="18"/>
+        <v>31.75</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>986.69657247999999</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="1"/>
+        <v>994.29341575000001</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="19"/>
+        <v>2.3022920024533329E-2</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="19"/>
+        <v>3.6457425244166668E-2</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="20"/>
+        <v>1.6444942874666668E-3</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="21"/>
+        <v>1.6571556929166668E-3</v>
+      </c>
+      <c r="S21">
         <f t="shared" si="2"/>
-        <v>51.4</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="3"/>
-        <v>31.75</v>
-      </c>
-      <c r="M21">
-        <f>$BU$6*K21^2+$BV$6*K21+$BW$6</f>
-        <v>986.69657247999999</v>
-      </c>
-      <c r="N21">
-        <f>$BU$6*L21^2+$BV$6*L21+$BW$6</f>
-        <v>994.29341575000001</v>
-      </c>
-      <c r="O21">
+        <v>543.07845129070665</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="40"/>
+        <v>578.262159025301</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="22"/>
+        <v>35.18370773459435</v>
+      </c>
+      <c r="V21">
         <f t="shared" si="4"/>
-        <v>2.3022920024533329E-2</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="4"/>
-        <v>3.6457425244166668E-2</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="5"/>
-        <v>1.6444942874666668E-3</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="6"/>
-        <v>1.6571556929166668E-3</v>
-      </c>
-      <c r="S21">
-        <f>O21*$BV$15*(C21-E21)</f>
-        <v>543.07845129070665</v>
-      </c>
-      <c r="T21">
-        <f>-P21*$BV$15*(F21-H21)</f>
-        <v>578.262159025301</v>
-      </c>
-      <c r="U21">
+        <v>40.989189738156021</v>
+      </c>
+      <c r="W21" s="13">
+        <f t="shared" si="41"/>
+        <v>20.599999999999994</v>
+      </c>
+      <c r="X21" s="13">
+        <f t="shared" si="42"/>
+        <v>18.7</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="23"/>
+        <v>0.14142135623730953</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="24"/>
+        <v>19.634680861580158</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="25"/>
+        <v>0.4842548086982475</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="26"/>
+        <v>0.51652576483403956</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="27"/>
+        <v>0.10013007395231124</v>
+      </c>
+      <c r="AD21">
         <f t="shared" si="7"/>
-        <v>35.18370773459435</v>
-      </c>
-      <c r="V21">
-        <f>SQRT((O21*$BV$15)^2*Y21^2+((C21-E21)*($BV$15))^2*Q21^2)</f>
-        <v>40.989189738156021</v>
-      </c>
-      <c r="W21" s="13">
-        <f>(C21-H21)</f>
-        <v>20.599999999999994</v>
-      </c>
-      <c r="X21" s="13">
-        <f>(E21-F21)</f>
-        <v>18.7</v>
-      </c>
-      <c r="Y21">
+        <v>27.659143284236748</v>
+      </c>
+      <c r="AE21">
         <f t="shared" si="8"/>
-        <v>0.14142135623730953</v>
-      </c>
-      <c r="Z21">
-        <f t="shared" si="9"/>
-        <v>19.634680861580158</v>
-      </c>
-      <c r="AA21">
-        <f t="shared" si="10"/>
-        <v>0.4842548086982475</v>
-      </c>
-      <c r="AB21">
-        <f t="shared" si="11"/>
-        <v>0.51652576483403956</v>
-      </c>
-      <c r="AC21">
-        <f t="shared" si="12"/>
-        <v>0.10013007395231124</v>
-      </c>
-      <c r="AD21">
-        <f>S21/Z21</f>
-        <v>27.659143284236748</v>
-      </c>
-      <c r="AE21">
-        <f>T21/Z21</f>
         <v>29.451059739748867</v>
       </c>
       <c r="AF21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>2.0876184856628179</v>
       </c>
       <c r="AG21">
@@ -15470,7 +15419,7 @@
         <v>520.80908187508237</v>
       </c>
       <c r="AI21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>535.53512689837112</v>
       </c>
       <c r="AJ21">
@@ -15498,71 +15447,71 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AP21" s="1">
-        <f>$BU$7*K21^2+$BV$7*K21+$BW$7</f>
+        <f t="shared" si="9"/>
         <v>5.1849073200000003E-4</v>
       </c>
       <c r="AQ21" s="1">
-        <f>$BU$7*L21^2+$BV$7*L21+$BW$7</f>
+        <f t="shared" si="10"/>
         <v>7.5033901874999997E-4</v>
       </c>
       <c r="AR21" s="13">
-        <f>M21*AL21*AN21/AP21</f>
+        <f t="shared" si="11"/>
         <v>3533.5361850921763</v>
       </c>
       <c r="AS21" s="13">
-        <f>N21*AM21*AO21/AQ21</f>
+        <f t="shared" si="12"/>
         <v>1406.0018919977699</v>
       </c>
       <c r="AT21" s="1">
-        <f>$BU$9*K21^2+$BV$9*K21+$BW$9</f>
+        <f t="shared" si="13"/>
         <v>0.64548862683999997</v>
       </c>
       <c r="AU21" s="1">
-        <f>$BU$9*L21^2+$BV$9*L21+$BW$9</f>
+        <f t="shared" si="14"/>
         <v>0.62179074943750001</v>
       </c>
       <c r="AV21" s="15">
+        <f t="shared" si="30"/>
+        <v>3.2668303039934008</v>
+      </c>
+      <c r="AW21" s="15">
+        <f t="shared" si="30"/>
+        <v>4.9078066729311924</v>
+      </c>
+      <c r="AX21" s="15">
+        <f t="shared" si="31"/>
+        <v>0.8</v>
+      </c>
+      <c r="AY21" s="15">
+        <f t="shared" si="32"/>
+        <v>0.16</v>
+      </c>
+      <c r="AZ21" s="15">
         <f t="shared" si="15"/>
-        <v>3.2668303039934008</v>
-      </c>
-      <c r="AW21" s="15">
-        <f t="shared" si="15"/>
-        <v>4.9078066729311924</v>
-      </c>
-      <c r="AX21" s="15">
+        <v>0.56240075679910795</v>
+      </c>
+      <c r="BA21" s="15">
         <f t="shared" si="16"/>
-        <v>0.8</v>
-      </c>
-      <c r="AY21" s="15">
-        <f t="shared" si="17"/>
-        <v>0.16</v>
-      </c>
-      <c r="AZ21" s="15">
-        <f t="shared" si="0"/>
-        <v>0.56240075679910795</v>
-      </c>
-      <c r="BA21" s="15">
-        <f t="shared" si="1"/>
         <v>2.7601541870802149</v>
       </c>
       <c r="BB21" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>4.314455034911012E-2</v>
       </c>
       <c r="BC21" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>21.047585110099572</v>
       </c>
       <c r="BD21" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>849.12355068851264</v>
       </c>
       <c r="BE21" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>55.203083741604296</v>
       </c>
       <c r="BF21" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="43"/>
         <v>6.3265378114756716</v>
       </c>
       <c r="BG21" s="15">
@@ -15570,7 +15519,7 @@
         <v>5.7705431664905227</v>
       </c>
       <c r="BH21" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>448.50879501919832</v>
       </c>
       <c r="BI21" s="15">
@@ -15581,12 +15530,12 @@
         <f>1/(BH21*Parameters!$B$26)</f>
         <v>3.942817345423337E-2</v>
       </c>
-      <c r="BK21" s="25">
+      <c r="BK21" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
       <c r="BL21" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>15.598874977537772</v>
       </c>
       <c r="BM21" s="15">
@@ -15594,23 +15543,20 @@
         <v>292.0750658056017</v>
       </c>
       <c r="BN21" s="15"/>
-      <c r="BO21" s="15"/>
-      <c r="BP21" s="15"/>
-      <c r="BQ21" s="15"/>
+      <c r="BP21" t="s">
+        <v>94</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>95</v>
+      </c>
       <c r="BT21" t="s">
         <v>94</v>
       </c>
       <c r="BU21" t="s">
-        <v>95</v>
-      </c>
-      <c r="BX21" t="s">
-        <v>94</v>
-      </c>
-      <c r="BY21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -15642,91 +15588,91 @@
         <v>2</v>
       </c>
       <c r="K22">
+        <f t="shared" si="17"/>
+        <v>51.599999999999994</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="18"/>
+        <v>31.9</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>986.60570528000005</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="1"/>
+        <v>994.24540467999998</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="19"/>
+        <v>2.3020799789866663E-2</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="19"/>
+        <v>3.3141513489333335E-2</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="20"/>
+        <v>1.6443428421333334E-3</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="21"/>
+        <v>1.6570756744666668E-3</v>
+      </c>
+      <c r="S22">
         <f t="shared" si="2"/>
-        <v>51.599999999999994</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="3"/>
-        <v>31.9</v>
-      </c>
-      <c r="M22">
-        <f>$BU$6*K22^2+$BV$6*K22+$BW$6</f>
-        <v>986.60570528000005</v>
-      </c>
-      <c r="N22">
-        <f>$BU$6*L22^2+$BV$6*L22+$BW$6</f>
-        <v>994.24540467999998</v>
-      </c>
-      <c r="O22">
+        <v>524.30331937417134</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="40"/>
+        <v>566.10344851669834</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="22"/>
+        <v>41.800129142526998</v>
+      </c>
+      <c r="V22">
         <f t="shared" si="4"/>
-        <v>2.3020799789866663E-2</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="4"/>
-        <v>3.3141513489333335E-2</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="5"/>
-        <v>1.6443428421333334E-3</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="6"/>
-        <v>1.6570756744666668E-3</v>
-      </c>
-      <c r="S22">
-        <f>O22*$BV$15*(C22-E22)</f>
-        <v>524.30331937417134</v>
-      </c>
-      <c r="T22">
-        <f>-P22*$BV$15*(F22-H22)</f>
-        <v>566.10344851669834</v>
-      </c>
-      <c r="U22">
+        <v>39.721974913724225</v>
+      </c>
+      <c r="W22" s="13">
+        <f t="shared" si="41"/>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="X22" s="13">
+        <f t="shared" si="42"/>
+        <v>18.999999999999996</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="23"/>
+        <v>0.14142135623730953</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="24"/>
+        <v>19.691706174481979</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="25"/>
+        <v>0.48835832973740784</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="26"/>
+        <v>0.51206296041257326</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="27"/>
+        <v>0.10007020871871902</v>
+      </c>
+      <c r="AD22">
         <f t="shared" si="7"/>
-        <v>41.800129142526998</v>
-      </c>
-      <c r="V22">
-        <f>SQRT((O22*$BV$15)^2*Y22^2+((C22-E22)*($BV$15))^2*Q22^2)</f>
-        <v>39.721974913724225</v>
-      </c>
-      <c r="W22" s="13">
-        <f>(C22-H22)</f>
-        <v>20.399999999999999</v>
-      </c>
-      <c r="X22" s="13">
-        <f>(E22-F22)</f>
-        <v>18.999999999999996</v>
-      </c>
-      <c r="Y22">
+        <v>26.625591237675675</v>
+      </c>
+      <c r="AE22">
         <f t="shared" si="8"/>
-        <v>0.14142135623730953</v>
-      </c>
-      <c r="Z22">
-        <f t="shared" si="9"/>
-        <v>19.691706174481979</v>
-      </c>
-      <c r="AA22">
-        <f t="shared" si="10"/>
-        <v>0.48835832973740784</v>
-      </c>
-      <c r="AB22">
-        <f t="shared" si="11"/>
-        <v>0.51206296041257326</v>
-      </c>
-      <c r="AC22">
-        <f t="shared" si="12"/>
-        <v>0.10007020871871902</v>
-      </c>
-      <c r="AD22">
-        <f>S22/Z22</f>
-        <v>26.625591237675675</v>
-      </c>
-      <c r="AE22">
-        <f>T22/Z22</f>
         <v>28.748318886166327</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>2.0172192024145059</v>
       </c>
       <c r="AG22">
@@ -15738,7 +15684,7 @@
         <v>508.38189514616249</v>
       </c>
       <c r="AI22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>519.04060121185239</v>
       </c>
       <c r="AJ22">
@@ -15766,71 +15712,71 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AP22" s="1">
-        <f>$BU$7*K22^2+$BV$7*K22+$BW$7</f>
+        <f t="shared" si="9"/>
         <v>5.1679275200000011E-4</v>
       </c>
       <c r="AQ22" s="1">
-        <f>$BU$7*L22^2+$BV$7*L22+$BW$7</f>
+        <f t="shared" si="10"/>
         <v>7.4808158700000009E-4</v>
       </c>
       <c r="AR22" s="13">
-        <f>M22*AL22*AN22/AP22</f>
+        <f t="shared" si="11"/>
         <v>3544.8195299826352</v>
       </c>
       <c r="AS22" s="13">
-        <f>N22*AM22*AO22/AQ22</f>
+        <f t="shared" si="12"/>
         <v>1281.9787148732066</v>
       </c>
       <c r="AT22" s="1">
-        <f>$BU$9*K22^2+$BV$9*K22+$BW$9</f>
+        <f t="shared" si="13"/>
         <v>0.64569917424000001</v>
       </c>
       <c r="AU22" s="1">
-        <f>$BU$9*L22^2+$BV$9*L22+$BW$9</f>
+        <f t="shared" si="14"/>
         <v>0.62199423318999991</v>
       </c>
       <c r="AV22" s="15">
+        <f t="shared" si="30"/>
+        <v>3.2550701723567386</v>
+      </c>
+      <c r="AW22" s="15">
+        <f t="shared" si="30"/>
+        <v>4.8914405503814811</v>
+      </c>
+      <c r="AX22" s="15">
+        <f t="shared" si="31"/>
+        <v>0.8</v>
+      </c>
+      <c r="AY22" s="15">
+        <f t="shared" si="32"/>
+        <v>0.16</v>
+      </c>
+      <c r="AZ22" s="15">
         <f t="shared" si="15"/>
-        <v>3.2550701723567386</v>
-      </c>
-      <c r="AW22" s="15">
-        <f t="shared" si="15"/>
-        <v>4.8914405503814811</v>
-      </c>
-      <c r="AX22" s="15">
+        <v>0.5127914859492827</v>
+      </c>
+      <c r="BA22" s="15">
         <f t="shared" si="16"/>
-        <v>0.8</v>
-      </c>
-      <c r="AY22" s="15">
-        <f t="shared" si="17"/>
-        <v>0.16</v>
-      </c>
-      <c r="AZ22" s="15">
-        <f t="shared" si="0"/>
-        <v>0.5127914859492827</v>
-      </c>
-      <c r="BA22" s="15">
-        <f t="shared" si="1"/>
         <v>2.5082890682626968</v>
       </c>
       <c r="BB22" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>4.3099443638970655E-2</v>
       </c>
       <c r="BC22" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>21.09805268443964</v>
       </c>
       <c r="BD22" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>851.43719977591809</v>
       </c>
       <c r="BE22" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>50.165781365253935</v>
       </c>
       <c r="BF22" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="43"/>
         <v>6.1774315565105677</v>
       </c>
       <c r="BG22" s="15">
@@ -15838,7 +15784,7 @@
         <v>5.6345408052765968</v>
       </c>
       <c r="BH22" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>438.08148594447266</v>
       </c>
       <c r="BI22" s="15">
@@ -15849,12 +15795,12 @@
         <f>1/(BH22*Parameters!$B$26)</f>
         <v>4.0366651258135121E-2</v>
       </c>
-      <c r="BK22" s="25">
+      <c r="BK22" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
       <c r="BL22" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>15.388877010423235</v>
       </c>
       <c r="BM22" s="15">
@@ -15862,11 +15808,8 @@
         <v>288.14304056965727</v>
       </c>
       <c r="BN22" s="15"/>
-      <c r="BO22" s="15"/>
-      <c r="BP22" s="15"/>
-      <c r="BQ22" s="15"/>
     </row>
-    <row r="23" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -15898,91 +15841,91 @@
         <v>1.8</v>
       </c>
       <c r="K23">
+        <f t="shared" si="17"/>
+        <v>51.7</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="18"/>
+        <v>32.200000000000003</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>986.56016932</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="1"/>
+        <v>994.14892192000002</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="19"/>
+        <v>2.301973728413333E-2</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="19"/>
+        <v>2.9824467657599999E-2</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="20"/>
+        <v>1.6442669488666666E-3</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="21"/>
+        <v>1.6569148698666668E-3</v>
+      </c>
+      <c r="S23">
         <f t="shared" si="2"/>
-        <v>51.7</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="3"/>
-        <v>32.200000000000003</v>
-      </c>
-      <c r="M23">
-        <f>$BU$6*K23^2+$BV$6*K23+$BW$6</f>
-        <v>986.56016932</v>
-      </c>
-      <c r="N23">
-        <f>$BU$6*L23^2+$BV$6*L23+$BW$6</f>
-        <v>994.14892192000002</v>
-      </c>
-      <c r="O23">
+        <v>505.55486628667927</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="40"/>
+        <v>557.96210583191248</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="22"/>
+        <v>52.40723954523321</v>
+      </c>
+      <c r="V23">
         <f t="shared" si="4"/>
-        <v>2.301973728413333E-2</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="4"/>
-        <v>2.9824467657599999E-2</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="5"/>
-        <v>1.6442669488666666E-3</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="6"/>
-        <v>1.6569148698666668E-3</v>
-      </c>
-      <c r="S23">
-        <f>O23*$BV$15*(C23-E23)</f>
-        <v>505.55486628667927</v>
-      </c>
-      <c r="T23">
-        <f>-P23*$BV$15*(F23-H23)</f>
-        <v>557.96210583191248</v>
-      </c>
-      <c r="U23">
+        <v>38.461768544936824</v>
+      </c>
+      <c r="W23" s="13">
+        <f t="shared" si="41"/>
+        <v>19.899999999999999</v>
+      </c>
+      <c r="X23" s="13">
+        <f t="shared" si="42"/>
+        <v>19.100000000000001</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="23"/>
+        <v>0.14142135623730953</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="24"/>
+        <v>19.497264650306693</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="25"/>
+        <v>0.49323101111833789</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="26"/>
+        <v>0.50690929471469026</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="27"/>
+        <v>0.10002338360573121</v>
+      </c>
+      <c r="AD23">
         <f t="shared" si="7"/>
-        <v>52.40723954523321</v>
-      </c>
-      <c r="V23">
-        <f>SQRT((O23*$BV$15)^2*Y23^2+((C23-E23)*($BV$15))^2*Q23^2)</f>
-        <v>38.461768544936824</v>
-      </c>
-      <c r="W23" s="13">
-        <f>(C23-H23)</f>
-        <v>19.899999999999999</v>
-      </c>
-      <c r="X23" s="13">
-        <f>(E23-F23)</f>
-        <v>19.100000000000001</v>
-      </c>
-      <c r="Y23">
+        <v>25.929527826290588</v>
+      </c>
+      <c r="AE23">
         <f t="shared" si="8"/>
-        <v>0.14142135623730953</v>
-      </c>
-      <c r="Z23">
-        <f t="shared" si="9"/>
-        <v>19.497264650306693</v>
-      </c>
-      <c r="AA23">
-        <f t="shared" si="10"/>
-        <v>0.49323101111833789</v>
-      </c>
-      <c r="AB23">
-        <f t="shared" si="11"/>
-        <v>0.50690929471469026</v>
-      </c>
-      <c r="AC23">
-        <f t="shared" si="12"/>
-        <v>0.10002338360573121</v>
-      </c>
-      <c r="AD23">
-        <f>S23/Z23</f>
-        <v>25.929527826290588</v>
-      </c>
-      <c r="AE23">
-        <f>T23/Z23</f>
         <v>28.617455619505872</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>1.972701061054192</v>
       </c>
       <c r="AG23">
@@ -15994,7 +15937,7 @@
         <v>506.06772450636646</v>
       </c>
       <c r="AI23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>510.95964510274541</v>
       </c>
       <c r="AJ23">
@@ -16022,71 +15965,71 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AP23" s="1">
-        <f>$BU$7*K23^2+$BV$7*K23+$BW$7</f>
+        <f t="shared" si="9"/>
         <v>5.1594876299999989E-4</v>
       </c>
       <c r="AQ23" s="1">
-        <f>$BU$7*L23^2+$BV$7*L23+$BW$7</f>
+        <f t="shared" si="10"/>
         <v>7.4358922799999997E-4</v>
       </c>
       <c r="AR23" s="13">
-        <f>M23*AL23*AN23/AP23</f>
+        <f t="shared" si="11"/>
         <v>3550.4542700557095</v>
       </c>
       <c r="AS23" s="13">
-        <f>N23*AM23*AO23/AQ23</f>
+        <f t="shared" si="12"/>
         <v>1160.6387148497979</v>
       </c>
       <c r="AT23" s="1">
-        <f>$BU$9*K23^2+$BV$9*K23+$BW$9</f>
+        <f t="shared" si="13"/>
         <v>0.64580421630999996</v>
       </c>
       <c r="AU23" s="1">
-        <f>$BU$9*L23^2+$BV$9*L23+$BW$9</f>
+        <f t="shared" si="14"/>
         <v>0.62240015835999996</v>
       </c>
       <c r="AV23" s="15">
+        <f t="shared" si="30"/>
+        <v>3.2492256416513392</v>
+      </c>
+      <c r="AW23" s="15">
+        <f t="shared" si="30"/>
+        <v>4.8588955990059333</v>
+      </c>
+      <c r="AX23" s="15">
+        <f t="shared" si="31"/>
+        <v>0.8</v>
+      </c>
+      <c r="AY23" s="15">
+        <f t="shared" si="32"/>
+        <v>0.16</v>
+      </c>
+      <c r="AZ23" s="15">
         <f t="shared" si="15"/>
-        <v>3.2492256416513392</v>
-      </c>
-      <c r="AW23" s="15">
-        <f t="shared" si="15"/>
-        <v>4.8588955990059333</v>
-      </c>
-      <c r="AX23" s="15">
+        <v>0.46425548593991917</v>
+      </c>
+      <c r="BA23" s="15">
         <f t="shared" si="16"/>
-        <v>0.8</v>
-      </c>
-      <c r="AY23" s="15">
-        <f t="shared" si="17"/>
-        <v>0.16</v>
-      </c>
-      <c r="AZ23" s="15">
-        <f t="shared" si="0"/>
-        <v>0.46425548593991917</v>
-      </c>
-      <c r="BA23" s="15">
-        <f t="shared" si="1"/>
         <v>2.2557689374478342</v>
       </c>
       <c r="BB23" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>4.3076998116089213E-2</v>
       </c>
       <c r="BC23" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>21.123185281657548</v>
       </c>
       <c r="BD23" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>852.59013229948619</v>
       </c>
       <c r="BE23" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>45.11537874895668</v>
       </c>
       <c r="BF23" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="43"/>
         <v>6.0204544347563962</v>
       </c>
       <c r="BG23" s="15">
@@ -16094,7 +16037,7 @@
         <v>5.4913592920655665</v>
       </c>
       <c r="BH23" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>427.22786162415821</v>
       </c>
       <c r="BI23" s="15">
@@ -16105,12 +16048,12 @@
         <f>1/(BH23*Parameters!$B$26)</f>
         <v>4.1392156631683004E-2</v>
       </c>
-      <c r="BK23" s="25">
+      <c r="BK23" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
       <c r="BL23" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>15.157047856260311</v>
       </c>
       <c r="BM23" s="15">
@@ -16118,11 +16061,8 @@
         <v>283.80224576520521</v>
       </c>
       <c r="BN23" s="15"/>
-      <c r="BO23" s="15"/>
-      <c r="BP23" s="15"/>
-      <c r="BQ23" s="15"/>
     </row>
-    <row r="24" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -16154,91 +16094,91 @@
         <v>2.5</v>
       </c>
       <c r="K24">
+        <f t="shared" si="17"/>
+        <v>51.349999999999994</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="18"/>
+        <v>31.8</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>986.71924663000004</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="1"/>
+        <v>994.27742911999997</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="19"/>
+        <v>2.3023449088033332E-2</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="19"/>
+        <v>4.1428226213333329E-2</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="20"/>
+        <v>1.6445320777166669E-3</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="21"/>
+        <v>1.6571290485333334E-3</v>
+      </c>
+      <c r="S24">
         <f t="shared" si="2"/>
-        <v>51.349999999999994</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="3"/>
-        <v>31.8</v>
-      </c>
-      <c r="M24">
-        <f>$BU$6*K24^2+$BV$6*K24+$BW$6</f>
-        <v>986.71924663000004</v>
-      </c>
-      <c r="N24">
-        <f>$BU$6*L24^2+$BV$6*L24+$BW$6</f>
-        <v>994.27742911999997</v>
-      </c>
-      <c r="O24">
+        <v>552.45456790208607</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="40"/>
+        <v>572.8612264327304</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="22"/>
+        <v>20.406658530644336</v>
+      </c>
+      <c r="V24">
         <f t="shared" si="4"/>
-        <v>2.3023449088033332E-2</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="4"/>
-        <v>4.1428226213333329E-2</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="5"/>
-        <v>1.6445320777166669E-3</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="6"/>
-        <v>1.6571290485333334E-3</v>
-      </c>
-      <c r="S24">
-        <f>O24*$BV$15*(C24-E24)</f>
-        <v>552.45456790208607</v>
-      </c>
-      <c r="T24">
-        <f>-P24*$BV$15*(F24-H24)</f>
-        <v>572.8612264327304</v>
-      </c>
-      <c r="U24">
+        <v>41.623660441856877</v>
+      </c>
+      <c r="W24" s="13">
+        <f t="shared" si="41"/>
+        <v>20.799999999999997</v>
+      </c>
+      <c r="X24" s="13">
+        <f t="shared" si="42"/>
+        <v>18.299999999999997</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="23"/>
+        <v>0.14142135623730953</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="24"/>
+        <v>19.523329803035903</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="25"/>
+        <v>0.47932410201994236</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="26"/>
+        <v>0.52204308639460384</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="27"/>
+        <v>0.10022779842235667</v>
+      </c>
+      <c r="AD24">
         <f t="shared" si="7"/>
-        <v>20.406658530644336</v>
-      </c>
-      <c r="V24">
-        <f>SQRT((O24*$BV$15)^2*Y24^2+((C24-E24)*($BV$15))^2*Q24^2)</f>
-        <v>41.623660441856877</v>
-      </c>
-      <c r="W24" s="13">
-        <f>(C24-H24)</f>
-        <v>20.799999999999997</v>
-      </c>
-      <c r="X24" s="13">
-        <f>(E24-F24)</f>
-        <v>18.299999999999997</v>
-      </c>
-      <c r="Y24">
+        <v>28.297148768965563</v>
+      </c>
+      <c r="AE24">
         <f t="shared" si="8"/>
-        <v>0.14142135623730953</v>
-      </c>
-      <c r="Z24">
-        <f t="shared" si="9"/>
-        <v>19.523329803035903</v>
-      </c>
-      <c r="AA24">
-        <f t="shared" si="10"/>
-        <v>0.47932410201994236</v>
-      </c>
-      <c r="AB24">
-        <f t="shared" si="11"/>
-        <v>0.52204308639460384</v>
-      </c>
-      <c r="AC24">
-        <f t="shared" si="12"/>
-        <v>0.10022779842235667</v>
-      </c>
-      <c r="AD24">
-        <f>S24/Z24</f>
-        <v>28.297148768965563</v>
-      </c>
-      <c r="AE24">
-        <f>T24/Z24</f>
         <v>29.342393547213945</v>
       </c>
       <c r="AF24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>2.1320240635694563</v>
       </c>
       <c r="AG24">
@@ -16250,7 +16190,7 @@
         <v>518.88744168742585</v>
       </c>
       <c r="AI24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>540.92066471793851</v>
       </c>
       <c r="AJ24">
@@ -16278,71 +16218,71 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AP24" s="1">
-        <f>$BU$7*K24^2+$BV$7*K24+$BW$7</f>
+        <f t="shared" si="9"/>
         <v>5.1891731074999988E-4</v>
       </c>
       <c r="AQ24" s="1">
-        <f>$BU$7*L24^2+$BV$7*L24+$BW$7</f>
+        <f t="shared" si="10"/>
         <v>7.4958570799999998E-4</v>
       </c>
       <c r="AR24" s="13">
-        <f>M24*AL24*AN24/AP24</f>
+        <f t="shared" si="11"/>
         <v>3530.7125561961184</v>
       </c>
       <c r="AS24" s="13">
-        <f>N24*AM24*AO24/AQ24</f>
+        <f t="shared" si="12"/>
         <v>1599.3093772907118</v>
       </c>
       <c r="AT24" s="1">
-        <f>$BU$9*K24^2+$BV$9*K24+$BW$9</f>
+        <f t="shared" si="13"/>
         <v>0.64543589347749997</v>
       </c>
       <c r="AU24" s="1">
-        <f>$BU$9*L24^2+$BV$9*L24+$BW$9</f>
+        <f t="shared" si="14"/>
         <v>0.62185861595999992</v>
       </c>
       <c r="AV24" s="15">
+        <f t="shared" si="30"/>
+        <v>3.2697851547263226</v>
+      </c>
+      <c r="AW24" s="15">
+        <f t="shared" si="30"/>
+        <v>4.9023443531931283</v>
+      </c>
+      <c r="AX24" s="15">
+        <f t="shared" si="31"/>
+        <v>0.8</v>
+      </c>
+      <c r="AY24" s="15">
+        <f t="shared" si="32"/>
+        <v>0.16</v>
+      </c>
+      <c r="AZ24" s="15">
         <f t="shared" si="15"/>
-        <v>3.2697851547263226</v>
-      </c>
-      <c r="AW24" s="15">
-        <f t="shared" si="15"/>
-        <v>4.9023443531931283</v>
-      </c>
-      <c r="AX24" s="15">
+        <v>0.63972375091628475</v>
+      </c>
+      <c r="BA24" s="15">
         <f t="shared" si="16"/>
-        <v>0.8</v>
-      </c>
-      <c r="AY24" s="15">
-        <f t="shared" si="17"/>
-        <v>0.16</v>
-      </c>
-      <c r="AZ24" s="15">
-        <f t="shared" si="0"/>
-        <v>0.63972375091628475</v>
-      </c>
-      <c r="BA24" s="15">
-        <f t="shared" si="1"/>
         <v>3.1361461179079759</v>
       </c>
       <c r="BB24" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>4.3155871826999662E-2</v>
       </c>
       <c r="BC24" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>21.034926330012308</v>
       </c>
       <c r="BD24" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>848.54352937780516</v>
       </c>
       <c r="BE24" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>62.722922358159515</v>
       </c>
       <c r="BF24" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="43"/>
         <v>6.5371762800823827</v>
       </c>
       <c r="BG24" s="15">
@@ -16350,7 +16290,7 @@
         <v>5.9626701104587863</v>
       </c>
       <c r="BH24" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>463.49222278949509</v>
       </c>
       <c r="BI24" s="15">
@@ -16361,12 +16301,12 @@
         <f>1/(BH24*Parameters!$B$26)</f>
         <v>3.8153569135069745E-2</v>
       </c>
-      <c r="BK24" s="25">
+      <c r="BK24" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
       <c r="BL24" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>15.911253881922468</v>
       </c>
       <c r="BM24" s="15">
@@ -16374,11 +16314,8 @@
         <v>297.92408307036112</v>
       </c>
       <c r="BN24" s="15"/>
-      <c r="BO24" s="15"/>
-      <c r="BP24" s="15"/>
-      <c r="BQ24" s="15"/>
     </row>
-    <row r="25" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -16410,91 +16347,91 @@
         <v>2.7</v>
       </c>
       <c r="K25">
+        <f t="shared" si="17"/>
+        <v>51.2</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="18"/>
+        <v>31.65</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>986.78716671999996</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="1"/>
+        <v>994.32533782999997</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="19"/>
+        <v>2.3025033890133328E-2</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="19"/>
+        <v>4.474464020235E-2</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="20"/>
+        <v>1.6446452778666669E-3</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="21"/>
+        <v>1.6572088963833333E-3</v>
+      </c>
+      <c r="S25">
         <f t="shared" si="2"/>
-        <v>51.2</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="3"/>
-        <v>31.65</v>
-      </c>
-      <c r="M25">
-        <f>$BU$6*K25^2+$BV$6*K25+$BW$6</f>
-        <v>986.78716671999996</v>
-      </c>
-      <c r="N25">
-        <f>$BU$6*L25^2+$BV$6*L25+$BW$6</f>
-        <v>994.32533782999997</v>
-      </c>
-      <c r="O25">
+        <v>561.8568769870335</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="40"/>
+        <v>600.52229061975913</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="22"/>
+        <v>38.665413632725631</v>
+      </c>
+      <c r="V25">
         <f t="shared" si="4"/>
-        <v>2.3025033890133328E-2</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="4"/>
-        <v>4.474464020235E-2</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="5"/>
-        <v>1.6446452778666669E-3</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="6"/>
-        <v>1.6572088963833333E-3</v>
-      </c>
-      <c r="S25">
-        <f>O25*$BV$15*(C25-E25)</f>
-        <v>561.8568769870335</v>
-      </c>
-      <c r="T25">
-        <f>-P25*$BV$15*(F25-H25)</f>
-        <v>600.52229061975913</v>
-      </c>
-      <c r="U25">
+        <v>42.261186037965494</v>
+      </c>
+      <c r="W25" s="13">
+        <f t="shared" si="41"/>
+        <v>20.900000000000006</v>
+      </c>
+      <c r="X25" s="13">
+        <f t="shared" si="42"/>
+        <v>18.200000000000003</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="23"/>
+        <v>0.14142135623730953</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="24"/>
+        <v>19.518886218996265</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="25"/>
+        <v>0.47772111903065584</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="26"/>
+        <v>0.5238744412777846</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="27"/>
+        <v>0.10026583643415271</v>
+      </c>
+      <c r="AD25">
         <f t="shared" si="7"/>
-        <v>38.665413632725631</v>
-      </c>
-      <c r="V25">
-        <f>SQRT((O25*$BV$15)^2*Y25^2+((C25-E25)*($BV$15))^2*Q25^2)</f>
-        <v>42.261186037965494</v>
-      </c>
-      <c r="W25" s="13">
-        <f>(C25-H25)</f>
-        <v>20.900000000000006</v>
-      </c>
-      <c r="X25" s="13">
-        <f>(E25-F25)</f>
-        <v>18.200000000000003</v>
-      </c>
-      <c r="Y25">
+        <v>28.78529392933396</v>
+      </c>
+      <c r="AE25">
         <f t="shared" si="8"/>
-        <v>0.14142135623730953</v>
-      </c>
-      <c r="Z25">
-        <f t="shared" si="9"/>
-        <v>19.518886218996265</v>
-      </c>
-      <c r="AA25">
-        <f t="shared" si="10"/>
-        <v>0.47772111903065584</v>
-      </c>
-      <c r="AB25">
-        <f t="shared" si="11"/>
-        <v>0.5238744412777846</v>
-      </c>
-      <c r="AC25">
-        <f t="shared" si="12"/>
-        <v>0.10026583643415271</v>
-      </c>
-      <c r="AD25">
-        <f>S25/Z25</f>
-        <v>28.78529392933396</v>
-      </c>
-      <c r="AE25">
-        <f>T25/Z25</f>
         <v>30.766217082372041</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>2.1651718822800752</v>
       </c>
       <c r="AG25">
@@ -16506,7 +16443,7 @@
         <v>544.06616987753569</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>558.36569851418199</v>
       </c>
       <c r="AJ25">
@@ -16534,71 +16471,71 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AP25" s="1">
-        <f>$BU$7*K25^2+$BV$7*K25+$BW$7</f>
+        <f t="shared" si="9"/>
         <v>5.202020479999998E-4</v>
       </c>
       <c r="AQ25" s="1">
-        <f>$BU$7*L25^2+$BV$7*L25+$BW$7</f>
+        <f t="shared" si="10"/>
         <v>7.5184814075000004E-4</v>
       </c>
       <c r="AR25" s="13">
-        <f>M25*AL25*AN25/AP25</f>
+        <f t="shared" si="11"/>
         <v>3522.2352281791991</v>
       </c>
       <c r="AS25" s="13">
-        <f>N25*AM25*AO25/AQ25</f>
+        <f t="shared" si="12"/>
         <v>1722.1395165756655</v>
       </c>
       <c r="AT25" s="1">
-        <f>$BU$9*K25^2+$BV$9*K25+$BW$9</f>
+        <f t="shared" si="13"/>
         <v>0.64527746176</v>
       </c>
       <c r="AU25" s="1">
-        <f>$BU$9*L25^2+$BV$9*L25+$BW$9</f>
+        <f t="shared" si="14"/>
         <v>0.62165490057749995</v>
       </c>
       <c r="AV25" s="15">
+        <f t="shared" si="30"/>
+        <v>3.2786853014291144</v>
+      </c>
+      <c r="AW25" s="15">
+        <f t="shared" si="30"/>
+        <v>4.9187521655337569</v>
+      </c>
+      <c r="AX25" s="15">
+        <f t="shared" si="31"/>
+        <v>0.8</v>
+      </c>
+      <c r="AY25" s="15">
+        <f t="shared" si="32"/>
+        <v>0.16</v>
+      </c>
+      <c r="AZ25" s="15">
         <f t="shared" si="15"/>
-        <v>3.2786853014291144</v>
-      </c>
-      <c r="AW25" s="15">
-        <f t="shared" si="15"/>
-        <v>4.9187521655337569</v>
-      </c>
-      <c r="AX25" s="15">
+        <v>0.68885580663026624</v>
+      </c>
+      <c r="BA25" s="15">
         <f t="shared" si="16"/>
-        <v>0.8</v>
-      </c>
-      <c r="AY25" s="15">
-        <f t="shared" si="17"/>
-        <v>0.16</v>
-      </c>
-      <c r="AZ25" s="15">
-        <f t="shared" si="0"/>
-        <v>0.68885580663026624</v>
-      </c>
-      <c r="BA25" s="15">
-        <f t="shared" si="1"/>
         <v>3.388310990603125</v>
       </c>
       <c r="BB25" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>4.3189943426077806E-2</v>
       </c>
       <c r="BC25" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>20.996850217975258</v>
       </c>
       <c r="BD25" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>846.79963835062358</v>
       </c>
       <c r="BE25" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>67.766219812062502</v>
       </c>
       <c r="BF25" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="43"/>
         <v>6.6714444655210379</v>
       </c>
       <c r="BG25" s="15">
@@ -16606,7 +16543,7 @@
         <v>6.0851384150905403</v>
       </c>
       <c r="BH25" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>472.85701455417944</v>
       </c>
       <c r="BI25" s="15">
@@ -16617,12 +16554,12 @@
         <f>1/(BH25*Parameters!$B$26)</f>
         <v>3.7397949108228683E-2</v>
       </c>
-      <c r="BK25" s="25">
+      <c r="BK25" s="24">
         <f>LN(Parameters!$B$17/Parameters!$B$18)/(2*PI()*Parameters!$B$6*1)</f>
         <v>1.2497168224721593E-3</v>
       </c>
       <c r="BL25" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>16.092367332439345</v>
       </c>
       <c r="BM25" s="15">
@@ -16630,11 +16567,8 @@
         <v>301.31527141273642</v>
       </c>
       <c r="BN25" s="15"/>
-      <c r="BO25" s="15"/>
-      <c r="BP25" s="15"/>
-      <c r="BQ25" s="15"/>
     </row>
-    <row r="27" spans="1:77" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:73" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="5" t="s">
         <v>44</v>
       </c>
@@ -16669,16 +16603,16 @@
       <c r="AS27" s="13"/>
       <c r="AX27" s="15"/>
       <c r="AZ27" s="15"/>
-      <c r="BK27" s="25"/>
+      <c r="BK27" s="24"/>
       <c r="BL27" s="15"/>
       <c r="BM27" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="BU8:BW8"/>
-    <mergeCell ref="BT12:BW12"/>
+    <mergeCell ref="BQ8:BS8"/>
+    <mergeCell ref="BP12:BS12"/>
+    <mergeCell ref="BP19:BQ19"/>
     <mergeCell ref="BT19:BU19"/>
-    <mergeCell ref="BX19:BY19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17718,11 +17652,11 @@
       <c r="C7" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="11" t="s">
@@ -17748,12 +17682,12 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
       <c r="G11">
         <v>39.799999999999997</v>
       </c>
